--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP_REPO\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\mosipProject\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4657306-45D8-4171-BCB8-81A9120007C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="3150" yWindow="3150" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3652" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="314">
   <si>
     <t>lang_code</t>
   </si>
@@ -951,12 +952,30 @@
   </si>
   <si>
     <t>Template for Acknowledgement in Android regclient</t>
+  </si>
+  <si>
+    <t>tnc-order-a-physical-card</t>
+  </si>
+  <si>
+    <t>Order a physical card</t>
+  </si>
+  <si>
+    <t>tnc-share-cred-with-partner</t>
+  </si>
+  <si>
+    <t>Share your credential with a partner</t>
+  </si>
+  <si>
+    <t>tnc-update-demo</t>
+  </si>
+  <si>
+    <t>Update demographic data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1046,7 +1065,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1324,11 +1343,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A900" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A902" sqref="A902:D913"/>
+    <sheetView tabSelected="1" topLeftCell="A916" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C934" sqref="C934"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14121,96 +14140,294 @@
       </c>
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A914" s="4"/>
+      <c r="A914" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B914" t="s">
+        <v>308</v>
+      </c>
+      <c r="C914" t="s">
+        <v>309</v>
+      </c>
+      <c r="D914" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="915" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A915" s="4"/>
+      <c r="A915" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B915" t="s">
+        <v>308</v>
+      </c>
+      <c r="C915" t="s">
+        <v>309</v>
+      </c>
+      <c r="D915" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="916" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A916" s="4"/>
+      <c r="A916" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B916" t="s">
+        <v>308</v>
+      </c>
+      <c r="C916" t="s">
+        <v>309</v>
+      </c>
+      <c r="D916" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="917" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A917" s="4"/>
+      <c r="A917" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B917" t="s">
+        <v>308</v>
+      </c>
+      <c r="C917" t="s">
+        <v>309</v>
+      </c>
+      <c r="D917" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="918" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A918" s="4"/>
+      <c r="A918" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B918" t="s">
+        <v>308</v>
+      </c>
+      <c r="C918" t="s">
+        <v>309</v>
+      </c>
+      <c r="D918" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="919" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A919" s="4"/>
+      <c r="A919" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B919" t="s">
+        <v>308</v>
+      </c>
+      <c r="C919" t="s">
+        <v>309</v>
+      </c>
+      <c r="D919" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A920" s="4"/>
+      <c r="A920" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B920" t="s">
+        <v>310</v>
+      </c>
+      <c r="C920" t="s">
+        <v>311</v>
+      </c>
+      <c r="D920" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="921" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A921" s="4"/>
+      <c r="A921" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B921" t="s">
+        <v>310</v>
+      </c>
+      <c r="C921" t="s">
+        <v>311</v>
+      </c>
+      <c r="D921" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A922" s="4"/>
+      <c r="A922" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B922" t="s">
+        <v>310</v>
+      </c>
+      <c r="C922" t="s">
+        <v>311</v>
+      </c>
+      <c r="D922" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A923" s="4"/>
+      <c r="A923" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B923" t="s">
+        <v>310</v>
+      </c>
+      <c r="C923" t="s">
+        <v>311</v>
+      </c>
+      <c r="D923" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A924" s="4"/>
+      <c r="A924" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B924" t="s">
+        <v>310</v>
+      </c>
+      <c r="C924" t="s">
+        <v>311</v>
+      </c>
+      <c r="D924" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A925" s="4"/>
+      <c r="A925" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B925" t="s">
+        <v>310</v>
+      </c>
+      <c r="C925" t="s">
+        <v>311</v>
+      </c>
+      <c r="D925" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A926" s="4"/>
+      <c r="A926" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B926" t="s">
+        <v>312</v>
+      </c>
+      <c r="C926" t="s">
+        <v>313</v>
+      </c>
+      <c r="D926" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A927" s="4"/>
+      <c r="A927" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B927" t="s">
+        <v>312</v>
+      </c>
+      <c r="C927" t="s">
+        <v>313</v>
+      </c>
+      <c r="D927" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A928" s="4"/>
-    </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A929" s="4"/>
-    </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A930" s="4"/>
-    </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A931" s="4"/>
-    </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A928" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B928" t="s">
+        <v>312</v>
+      </c>
+      <c r="C928" t="s">
+        <v>313</v>
+      </c>
+      <c r="D928" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A929" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B929" t="s">
+        <v>312</v>
+      </c>
+      <c r="C929" t="s">
+        <v>313</v>
+      </c>
+      <c r="D929" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A930" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B930" t="s">
+        <v>312</v>
+      </c>
+      <c r="C930" t="s">
+        <v>313</v>
+      </c>
+      <c r="D930" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A931" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B931" t="s">
+        <v>312</v>
+      </c>
+      <c r="C931" t="s">
+        <v>313</v>
+      </c>
+      <c r="D931" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A932" s="4"/>
     </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A933" s="4"/>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A934" s="4"/>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A935" s="4"/>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A936" s="4"/>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A937" s="4"/>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A938" s="4"/>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A939" s="4"/>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A940" s="4"/>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A941" s="4"/>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A942" s="4"/>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A943" s="4"/>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A944" s="4"/>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
@@ -14235,7 +14452,7 @@
       <c r="A951" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D400"/>
+  <autoFilter ref="A1:D400" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\mosipProject\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4657306-45D8-4171-BCB8-81A9120007C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78468D9C-5FFE-4353-AB34-76DE9A0DD193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="3150" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4880" uniqueCount="412">
   <si>
     <t>lang_code</t>
   </si>
@@ -970,6 +970,300 @@
   </si>
   <si>
     <t>Update demographic data</t>
+  </si>
+  <si>
+    <t>Success email to customize and download my card</t>
+  </si>
+  <si>
+    <t>Failure email to customize and download my card</t>
+  </si>
+  <si>
+    <t>Request received email to customize and download my card</t>
+  </si>
+  <si>
+    <t>cust-and-down-my-card-request-received-email-content</t>
+  </si>
+  <si>
+    <t>cust-and-down-my-card-success-email-content</t>
+  </si>
+  <si>
+    <t>cust-and-down-my-card-failure-email-content</t>
+  </si>
+  <si>
+    <t>cust-and-down-my-card-request-received-email-subject</t>
+  </si>
+  <si>
+    <t>Request received email subject to customize and download my card</t>
+  </si>
+  <si>
+    <t>cust-and-down-my-card-success-email-subject</t>
+  </si>
+  <si>
+    <t>Success email subject to customize and download my card</t>
+  </si>
+  <si>
+    <t>cust-and-down-my-card-failure-email-subject</t>
+  </si>
+  <si>
+    <t>Failure email subject to customize and download my card</t>
+  </si>
+  <si>
+    <t>Request received email subject to order a physical card</t>
+  </si>
+  <si>
+    <t>Success email subject to order a physical card</t>
+  </si>
+  <si>
+    <t>Failure email subject to order a physical card</t>
+  </si>
+  <si>
+    <t>Request received email to order a physical card</t>
+  </si>
+  <si>
+    <t>Success email to order a physical card</t>
+  </si>
+  <si>
+    <t>Failure email to order a physical card</t>
+  </si>
+  <si>
+    <t>order-a-physical-card-request-received-email-subject</t>
+  </si>
+  <si>
+    <t>order-a-physical-card-success-email-subject</t>
+  </si>
+  <si>
+    <t>order-a-physical-card-failure-email-subject</t>
+  </si>
+  <si>
+    <t>order-a-physical-card-request-received-email-content</t>
+  </si>
+  <si>
+    <t>order-a-physical-card-success-email-content</t>
+  </si>
+  <si>
+    <t>order-a-physical-card-failure-email-content</t>
+  </si>
+  <si>
+    <t>Request received email subject to share my credential with a partner</t>
+  </si>
+  <si>
+    <t>Success email subject to share my credential with a partner</t>
+  </si>
+  <si>
+    <t>Failure email subject to share my credential with a partner</t>
+  </si>
+  <si>
+    <t>Request received email to share my credential with a partner</t>
+  </si>
+  <si>
+    <t>Success email to share my credential with a partner</t>
+  </si>
+  <si>
+    <t>Failure email to share my credential with a partner</t>
+  </si>
+  <si>
+    <t>share-cred-with-partner-request-received-email-subject</t>
+  </si>
+  <si>
+    <t>share-cred-with-partner-success-email-subject</t>
+  </si>
+  <si>
+    <t>share-cred-with-partner-failure-email-subject</t>
+  </si>
+  <si>
+    <t>share-cred-with-partner-request-received-email-content</t>
+  </si>
+  <si>
+    <t>share-cred-with-partner-success-email-content</t>
+  </si>
+  <si>
+    <t>share-cred-with-partner-failure-email-content</t>
+  </si>
+  <si>
+    <t>Request received email subject to lock/unlock authentication</t>
+  </si>
+  <si>
+    <t>Success email subject to lock/unlock authentication</t>
+  </si>
+  <si>
+    <t>Failure email subject to lock/unlock authentication</t>
+  </si>
+  <si>
+    <t>Request received email to lock/unlock authentication</t>
+  </si>
+  <si>
+    <t>Success email to lock/unlock authentication</t>
+  </si>
+  <si>
+    <t>Failure email to lock/unlock authentication</t>
+  </si>
+  <si>
+    <t>lock-unlock-auth-request-received-email-subject</t>
+  </si>
+  <si>
+    <t>lock-unlock-auth-success-email-subject</t>
+  </si>
+  <si>
+    <t>lock-unlock-auth-failure-email-subject</t>
+  </si>
+  <si>
+    <t>lock-unlock-auth-request-received-email-content</t>
+  </si>
+  <si>
+    <t>lock-unlock-auth-success-email-content</t>
+  </si>
+  <si>
+    <t>lock-unlock-auth-failure-email-content</t>
+  </si>
+  <si>
+    <t>Request received email subject to self update demographic data</t>
+  </si>
+  <si>
+    <t>Success email subject to self update demographic data</t>
+  </si>
+  <si>
+    <t>Failure email subject to self update demographic data</t>
+  </si>
+  <si>
+    <t>Request received email to self update demographic data</t>
+  </si>
+  <si>
+    <t>Success email to self update demographic data</t>
+  </si>
+  <si>
+    <t>Failure email to self update demographic data</t>
+  </si>
+  <si>
+    <t>update-demo-data-request-received-email-subject</t>
+  </si>
+  <si>
+    <t>update-demo-data-success-email-subject</t>
+  </si>
+  <si>
+    <t>update-demo-data-failure-email-subject</t>
+  </si>
+  <si>
+    <t>update-demo-data-request-received-email-content</t>
+  </si>
+  <si>
+    <t>update-demo-data-success-email-content</t>
+  </si>
+  <si>
+    <t>update-demo-data-failure-email-content</t>
+  </si>
+  <si>
+    <t>Request received email subject to generate or revoke VID</t>
+  </si>
+  <si>
+    <t>Success email subject to generate or revoke VID</t>
+  </si>
+  <si>
+    <t>Failure email subject to generate or revoke VID</t>
+  </si>
+  <si>
+    <t>Request received email to generate or revoke VID</t>
+  </si>
+  <si>
+    <t>Success email to generate or revoke VID</t>
+  </si>
+  <si>
+    <t>Failure email to generate or revoke VID</t>
+  </si>
+  <si>
+    <t>gen-or-revoke-vid-request-received-email-subject</t>
+  </si>
+  <si>
+    <t>gen-or-revoke-vid-success-email-subject</t>
+  </si>
+  <si>
+    <t>gen-or-revoke-vid-failure-email-subject</t>
+  </si>
+  <si>
+    <t>gen-or-revoke-vid-request-received-email-content</t>
+  </si>
+  <si>
+    <t>gen-or-revoke-vid-success-email-content</t>
+  </si>
+  <si>
+    <t>gen-or-revoke-vid-failure-email-content</t>
+  </si>
+  <si>
+    <t>Request received email subject to get my UIN card</t>
+  </si>
+  <si>
+    <t>Success email subject to get my UIN card</t>
+  </si>
+  <si>
+    <t>Failure email subject to get my UIN card</t>
+  </si>
+  <si>
+    <t>Request received email to get my UIN card</t>
+  </si>
+  <si>
+    <t>Success email to get my UIN card</t>
+  </si>
+  <si>
+    <t>Failure email to get my UIN card</t>
+  </si>
+  <si>
+    <t>get-my-uin-card-request-received-email-subject</t>
+  </si>
+  <si>
+    <t>get-my-uin-card-success-email-subject</t>
+  </si>
+  <si>
+    <t>get-my-uin-card-failure-email-subject</t>
+  </si>
+  <si>
+    <t>get-my-uin-card-request-received-email-content</t>
+  </si>
+  <si>
+    <t>get-my-uin-card-success-email-content</t>
+  </si>
+  <si>
+    <t>get-my-uin-card-failure-email-content</t>
+  </si>
+  <si>
+    <t>Request received email subject to verify my phone and email</t>
+  </si>
+  <si>
+    <t>Success email subject to verify my phone and email</t>
+  </si>
+  <si>
+    <t>Failure email subject to verify my phone and email</t>
+  </si>
+  <si>
+    <t>Request received email to verify my phone and email</t>
+  </si>
+  <si>
+    <t>Success email to verify my phone and email</t>
+  </si>
+  <si>
+    <t>Failure email to verify my phone and email</t>
+  </si>
+  <si>
+    <t>verify-my-phone-email-request-received-email-subject</t>
+  </si>
+  <si>
+    <t>verify-my-phone-email-success-email-subject</t>
+  </si>
+  <si>
+    <t>verify-my-phone-email-failure-email-subject</t>
+  </si>
+  <si>
+    <t>verify-my-phone-email-request-received-email-content</t>
+  </si>
+  <si>
+    <t>verify-my-phone-email-success-email-content</t>
+  </si>
+  <si>
+    <t>verify-my-phone-email-failure-email-content</t>
+  </si>
+  <si>
+    <t>Acknowledgement for share credential with a partner</t>
+  </si>
+  <si>
+    <t>acknowledgement-share-cred-with-partner</t>
   </si>
 </sst>
 </file>
@@ -1344,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D951"/>
+  <dimension ref="A1:D1220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A916" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C934" sqref="C934"/>
+    <sheetView tabSelected="1" topLeftCell="A1212" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1223" sqref="C1223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14392,64 +14686,4050 @@
       </c>
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A932" s="4"/>
+      <c r="A932" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B932" t="s">
+        <v>320</v>
+      </c>
+      <c r="C932" t="s">
+        <v>321</v>
+      </c>
+      <c r="D932" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A933" s="4"/>
+      <c r="A933" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B933" t="s">
+        <v>320</v>
+      </c>
+      <c r="C933" t="s">
+        <v>321</v>
+      </c>
+      <c r="D933" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A934" s="4"/>
+      <c r="A934" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B934" t="s">
+        <v>320</v>
+      </c>
+      <c r="C934" t="s">
+        <v>321</v>
+      </c>
+      <c r="D934" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A935" s="4"/>
+      <c r="A935" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B935" t="s">
+        <v>320</v>
+      </c>
+      <c r="C935" t="s">
+        <v>321</v>
+      </c>
+      <c r="D935" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A936" s="4"/>
+      <c r="A936" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B936" t="s">
+        <v>320</v>
+      </c>
+      <c r="C936" t="s">
+        <v>321</v>
+      </c>
+      <c r="D936" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A937" s="4"/>
+      <c r="A937" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B937" t="s">
+        <v>320</v>
+      </c>
+      <c r="C937" t="s">
+        <v>321</v>
+      </c>
+      <c r="D937" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A938" s="4"/>
+      <c r="A938" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B938" t="s">
+        <v>322</v>
+      </c>
+      <c r="C938" t="s">
+        <v>323</v>
+      </c>
+      <c r="D938" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A939" s="4"/>
+      <c r="A939" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B939" t="s">
+        <v>322</v>
+      </c>
+      <c r="C939" t="s">
+        <v>323</v>
+      </c>
+      <c r="D939" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A940" s="4"/>
+      <c r="A940" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B940" t="s">
+        <v>322</v>
+      </c>
+      <c r="C940" t="s">
+        <v>323</v>
+      </c>
+      <c r="D940" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="941" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A941" s="4"/>
+      <c r="A941" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B941" t="s">
+        <v>322</v>
+      </c>
+      <c r="C941" t="s">
+        <v>323</v>
+      </c>
+      <c r="D941" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A942" s="4"/>
+      <c r="A942" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B942" t="s">
+        <v>322</v>
+      </c>
+      <c r="C942" t="s">
+        <v>323</v>
+      </c>
+      <c r="D942" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A943" s="4"/>
+      <c r="A943" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B943" t="s">
+        <v>322</v>
+      </c>
+      <c r="C943" t="s">
+        <v>323</v>
+      </c>
+      <c r="D943" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A944" s="4"/>
-    </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A945" s="4"/>
-    </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A946" s="4"/>
-    </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A947" s="4"/>
-    </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A948" s="4"/>
-    </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A949" s="4"/>
-    </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A950" s="4"/>
-    </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A951" s="4"/>
+      <c r="A944" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B944" t="s">
+        <v>324</v>
+      </c>
+      <c r="C944" t="s">
+        <v>325</v>
+      </c>
+      <c r="D944" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A945" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B945" t="s">
+        <v>324</v>
+      </c>
+      <c r="C945" t="s">
+        <v>325</v>
+      </c>
+      <c r="D945" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A946" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B946" t="s">
+        <v>324</v>
+      </c>
+      <c r="C946" t="s">
+        <v>325</v>
+      </c>
+      <c r="D946" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A947" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B947" t="s">
+        <v>324</v>
+      </c>
+      <c r="C947" t="s">
+        <v>325</v>
+      </c>
+      <c r="D947" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A948" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B948" t="s">
+        <v>324</v>
+      </c>
+      <c r="C948" t="s">
+        <v>325</v>
+      </c>
+      <c r="D948" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A949" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B949" t="s">
+        <v>324</v>
+      </c>
+      <c r="C949" t="s">
+        <v>325</v>
+      </c>
+      <c r="D949" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A950" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B950" t="s">
+        <v>317</v>
+      </c>
+      <c r="C950" t="s">
+        <v>316</v>
+      </c>
+      <c r="D950" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A951" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B951" t="s">
+        <v>318</v>
+      </c>
+      <c r="C951" t="s">
+        <v>314</v>
+      </c>
+      <c r="D951" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A952" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B952" t="s">
+        <v>319</v>
+      </c>
+      <c r="C952" t="s">
+        <v>315</v>
+      </c>
+      <c r="D952" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A953" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B953" t="s">
+        <v>317</v>
+      </c>
+      <c r="C953" t="s">
+        <v>316</v>
+      </c>
+      <c r="D953" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A954" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B954" t="s">
+        <v>318</v>
+      </c>
+      <c r="C954" t="s">
+        <v>314</v>
+      </c>
+      <c r="D954" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A955" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B955" t="s">
+        <v>319</v>
+      </c>
+      <c r="C955" t="s">
+        <v>315</v>
+      </c>
+      <c r="D955" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A956" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B956" t="s">
+        <v>317</v>
+      </c>
+      <c r="C956" t="s">
+        <v>316</v>
+      </c>
+      <c r="D956" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A957" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B957" t="s">
+        <v>318</v>
+      </c>
+      <c r="C957" t="s">
+        <v>314</v>
+      </c>
+      <c r="D957" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A958" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B958" t="s">
+        <v>319</v>
+      </c>
+      <c r="C958" t="s">
+        <v>315</v>
+      </c>
+      <c r="D958" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A959" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B959" t="s">
+        <v>317</v>
+      </c>
+      <c r="C959" t="s">
+        <v>316</v>
+      </c>
+      <c r="D959" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A960" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B960" t="s">
+        <v>318</v>
+      </c>
+      <c r="C960" t="s">
+        <v>314</v>
+      </c>
+      <c r="D960" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A961" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B961" t="s">
+        <v>319</v>
+      </c>
+      <c r="C961" t="s">
+        <v>315</v>
+      </c>
+      <c r="D961" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A962" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B962" t="s">
+        <v>317</v>
+      </c>
+      <c r="C962" t="s">
+        <v>316</v>
+      </c>
+      <c r="D962" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A963" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B963" t="s">
+        <v>318</v>
+      </c>
+      <c r="C963" t="s">
+        <v>314</v>
+      </c>
+      <c r="D963" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A964" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B964" t="s">
+        <v>319</v>
+      </c>
+      <c r="C964" t="s">
+        <v>315</v>
+      </c>
+      <c r="D964" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A965" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B965" t="s">
+        <v>317</v>
+      </c>
+      <c r="C965" t="s">
+        <v>316</v>
+      </c>
+      <c r="D965" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A966" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B966" t="s">
+        <v>318</v>
+      </c>
+      <c r="C966" t="s">
+        <v>314</v>
+      </c>
+      <c r="D966" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A967" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B967" t="s">
+        <v>319</v>
+      </c>
+      <c r="C967" t="s">
+        <v>315</v>
+      </c>
+      <c r="D967" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A968" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B968" t="s">
+        <v>332</v>
+      </c>
+      <c r="C968" t="s">
+        <v>326</v>
+      </c>
+      <c r="D968" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A969" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B969" t="s">
+        <v>332</v>
+      </c>
+      <c r="C969" t="s">
+        <v>326</v>
+      </c>
+      <c r="D969" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A970" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B970" t="s">
+        <v>332</v>
+      </c>
+      <c r="C970" t="s">
+        <v>326</v>
+      </c>
+      <c r="D970" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A971" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B971" t="s">
+        <v>332</v>
+      </c>
+      <c r="C971" t="s">
+        <v>326</v>
+      </c>
+      <c r="D971" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A972" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B972" t="s">
+        <v>332</v>
+      </c>
+      <c r="C972" t="s">
+        <v>326</v>
+      </c>
+      <c r="D972" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A973" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B973" t="s">
+        <v>332</v>
+      </c>
+      <c r="C973" t="s">
+        <v>326</v>
+      </c>
+      <c r="D973" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A974" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B974" t="s">
+        <v>333</v>
+      </c>
+      <c r="C974" t="s">
+        <v>327</v>
+      </c>
+      <c r="D974" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A975" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B975" t="s">
+        <v>333</v>
+      </c>
+      <c r="C975" t="s">
+        <v>327</v>
+      </c>
+      <c r="D975" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A976" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B976" t="s">
+        <v>333</v>
+      </c>
+      <c r="C976" t="s">
+        <v>327</v>
+      </c>
+      <c r="D976" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A977" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B977" t="s">
+        <v>333</v>
+      </c>
+      <c r="C977" t="s">
+        <v>327</v>
+      </c>
+      <c r="D977" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A978" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B978" t="s">
+        <v>333</v>
+      </c>
+      <c r="C978" t="s">
+        <v>327</v>
+      </c>
+      <c r="D978" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A979" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B979" t="s">
+        <v>333</v>
+      </c>
+      <c r="C979" t="s">
+        <v>327</v>
+      </c>
+      <c r="D979" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A980" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B980" t="s">
+        <v>334</v>
+      </c>
+      <c r="C980" t="s">
+        <v>328</v>
+      </c>
+      <c r="D980" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A981" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B981" t="s">
+        <v>334</v>
+      </c>
+      <c r="C981" t="s">
+        <v>328</v>
+      </c>
+      <c r="D981" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A982" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B982" t="s">
+        <v>334</v>
+      </c>
+      <c r="C982" t="s">
+        <v>328</v>
+      </c>
+      <c r="D982" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A983" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B983" t="s">
+        <v>334</v>
+      </c>
+      <c r="C983" t="s">
+        <v>328</v>
+      </c>
+      <c r="D983" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A984" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B984" t="s">
+        <v>334</v>
+      </c>
+      <c r="C984" t="s">
+        <v>328</v>
+      </c>
+      <c r="D984" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A985" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B985" t="s">
+        <v>334</v>
+      </c>
+      <c r="C985" t="s">
+        <v>328</v>
+      </c>
+      <c r="D985" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A986" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B986" t="s">
+        <v>335</v>
+      </c>
+      <c r="C986" t="s">
+        <v>329</v>
+      </c>
+      <c r="D986" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A987" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B987" t="s">
+        <v>336</v>
+      </c>
+      <c r="C987" t="s">
+        <v>330</v>
+      </c>
+      <c r="D987" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A988" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B988" t="s">
+        <v>337</v>
+      </c>
+      <c r="C988" t="s">
+        <v>331</v>
+      </c>
+      <c r="D988" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A989" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B989" t="s">
+        <v>335</v>
+      </c>
+      <c r="C989" t="s">
+        <v>329</v>
+      </c>
+      <c r="D989" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A990" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B990" t="s">
+        <v>336</v>
+      </c>
+      <c r="C990" t="s">
+        <v>330</v>
+      </c>
+      <c r="D990" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A991" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B991" t="s">
+        <v>337</v>
+      </c>
+      <c r="C991" t="s">
+        <v>331</v>
+      </c>
+      <c r="D991" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A992" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B992" t="s">
+        <v>335</v>
+      </c>
+      <c r="C992" t="s">
+        <v>329</v>
+      </c>
+      <c r="D992" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A993" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B993" t="s">
+        <v>336</v>
+      </c>
+      <c r="C993" t="s">
+        <v>330</v>
+      </c>
+      <c r="D993" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A994" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B994" t="s">
+        <v>337</v>
+      </c>
+      <c r="C994" t="s">
+        <v>331</v>
+      </c>
+      <c r="D994" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A995" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B995" t="s">
+        <v>335</v>
+      </c>
+      <c r="C995" t="s">
+        <v>329</v>
+      </c>
+      <c r="D995" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A996" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B996" t="s">
+        <v>336</v>
+      </c>
+      <c r="C996" t="s">
+        <v>330</v>
+      </c>
+      <c r="D996" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A997" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B997" t="s">
+        <v>337</v>
+      </c>
+      <c r="C997" t="s">
+        <v>331</v>
+      </c>
+      <c r="D997" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A998" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B998" t="s">
+        <v>335</v>
+      </c>
+      <c r="C998" t="s">
+        <v>329</v>
+      </c>
+      <c r="D998" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A999" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B999" t="s">
+        <v>336</v>
+      </c>
+      <c r="C999" t="s">
+        <v>330</v>
+      </c>
+      <c r="D999" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1000" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1000" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1001" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1001" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1002" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1002" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1003" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1003" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1004" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1004" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1005" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1005" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1006" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1006" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1007" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1007" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1008" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1008" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1009" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1009" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1010" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1010" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1011" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1011" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1012" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1012" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1013" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1013" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1014" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1014" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1015" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1015" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1016" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1016" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1017" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1017" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1018" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1018" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1019" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1019" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1020" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1020" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1021" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1021" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1022" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1022" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1023" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1023" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1024" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1024" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1025" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1025" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1026" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1026" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1027" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1027" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1028" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1028" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1029" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1029" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1030" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1030" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1031" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1031" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1032" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1032" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1033" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1033" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1034" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1034" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1035" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1035" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1036" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1036" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1037" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1037" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1038" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1038" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1039" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1039" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1040" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1040" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1041" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1041" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1042" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1042" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1043" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1043" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1044" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1044" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1045" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1045" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1046" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1046" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1047" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1047" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1048" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1048" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1049" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1049" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1050" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1050" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1051" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1051" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1052" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1052" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1053" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1053" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1054" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1054" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1055" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1055" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1056" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1056" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1057" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1057" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1058" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1058" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1059" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1059" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1060" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1060" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1061" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1061" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1062" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1062" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1063" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1063" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1064" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1064" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1065" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1065" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1066" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1066" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1067" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1067" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1068" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1068" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1069" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1069" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1070" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1070" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1071" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1071" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1072" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1072" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1073" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1073" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1074" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1074" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1075" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1075" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1076" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1076" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1077" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1077" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1078" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1078" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1079" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1079" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1080" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1080" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1081" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1081" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1082" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1082" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1083" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1083" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1084" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1084" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1085" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1085" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1086" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1086" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1087" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1087" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1088" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1088" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1089" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1089" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1090" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1090" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1091" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1091" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1092" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1092" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1093" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1093" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1094" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1094" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1095" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1095" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1096" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1096" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1097" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1097" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1098" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1098" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1099" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1099" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1100" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1100" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1101" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1101" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1102" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1102" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1103" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1103" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1104" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1104" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1105" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1105" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1106" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1106" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1107" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1107" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1108" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1108" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1109" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1109" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1110" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1110" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1111" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1111" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1112" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1112" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1113" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1113" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1114" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1114" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1115" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1115" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1116" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1116" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1117" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1117" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1118" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1118" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1119" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1119" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1120" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1120" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1121" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1121" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1122" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1122" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1123" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1123" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1124" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1124" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1125" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1125" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1126" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1126" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1127" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1127" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1128" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1128" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1129" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1129" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1130" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1130" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1131" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1131" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1132" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1132" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1133" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1133" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1134" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1134" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1135" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1135" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1136" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1136" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1137" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1137" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1138" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1138" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1139" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1139" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1140" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1140" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1141" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1141" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1142" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1142" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1143" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1143" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1144" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1144" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1145" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1145" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1146" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1146" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1147" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1147" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1148" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1148" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1149" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1149" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1150" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1150" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1151" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1151" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1152" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1152" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1153" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1153" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1154" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1154" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1155" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1155" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1156" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1156" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1157" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1157" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1158" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1158" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1159" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1159" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1160" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1160" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1161" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1161" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1162" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1162" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1163" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1163" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1164" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1164" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1165" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1165" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1166" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1166" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1167" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>396</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1167" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1168" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1168" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1169" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1169" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1170" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>396</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1170" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1171" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1171" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1172" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1172" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1173" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>396</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1173" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1174" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1174" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1175" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1175" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1176" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>396</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1176" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1177" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1177" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1178" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1178" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1179" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>396</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1179" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1180" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1180" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1181" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1181" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1182" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>396</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1182" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1183" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1183" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1184" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1184" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1185" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1185" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1186" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1186" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1187" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1187" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1188" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1188" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1189" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1189" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1190" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>405</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>399</v>
+      </c>
+      <c r="D1190" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1191" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>405</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>399</v>
+      </c>
+      <c r="D1191" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1192" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>405</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>399</v>
+      </c>
+      <c r="D1192" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1193" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>405</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>399</v>
+      </c>
+      <c r="D1193" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1194" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>405</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>399</v>
+      </c>
+      <c r="D1194" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1195" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>405</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>399</v>
+      </c>
+      <c r="D1195" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1196" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1196" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1197" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1197" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1198" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1198" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1199" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1199" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1200" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1200" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1201" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1201" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1202" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1202" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1203" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1203" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1204" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1204" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1205" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1205" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1206" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1206" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1207" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1207" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1208" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1208" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1209" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1209" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1210" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1210" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1211" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1211" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1212" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1212" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1213" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1213" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1214" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1214" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1215" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1215" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1216" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1216" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1217" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1217" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1218" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1218" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1219" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1219" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1220" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1220" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D400" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\mosipProject\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78468D9C-5FFE-4353-AB34-76DE9A0DD193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A3A26F-95A9-4C85-8CA3-08DCC114D7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4880" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5456" uniqueCount="460">
   <si>
     <t>lang_code</t>
   </si>
@@ -1264,6 +1264,150 @@
   </si>
   <si>
     <t>acknowledgement-share-cred-with-partner</t>
+  </si>
+  <si>
+    <t>Request received sms to customize and download my card</t>
+  </si>
+  <si>
+    <t>Success sms to customize and download my card</t>
+  </si>
+  <si>
+    <t>Failure sms to customize and download my card</t>
+  </si>
+  <si>
+    <t>order-a-physical-card-request-received_SMS</t>
+  </si>
+  <si>
+    <t>order-a-physical-card-success_SMS</t>
+  </si>
+  <si>
+    <t>order-a-physical-card-failure_SMS</t>
+  </si>
+  <si>
+    <t>share-cred-with-partner-request-received_SMS</t>
+  </si>
+  <si>
+    <t>share-cred-with-partner-success_SMS</t>
+  </si>
+  <si>
+    <t>share-cred-with-partner-failure_SMS</t>
+  </si>
+  <si>
+    <t>lock-unlock-auth-request-received_SMS</t>
+  </si>
+  <si>
+    <t>lock-unlock-auth-success_SMS</t>
+  </si>
+  <si>
+    <t>lock-unlock-auth-failure_SMS</t>
+  </si>
+  <si>
+    <t>update-demo-data-request-received_SMS</t>
+  </si>
+  <si>
+    <t>update-demo-data-success_SMS</t>
+  </si>
+  <si>
+    <t>update-demo-data-failure_SMS</t>
+  </si>
+  <si>
+    <t>gen-or-revoke-vid-request-received_SMS</t>
+  </si>
+  <si>
+    <t>gen-or-revoke-vid-success_SMS</t>
+  </si>
+  <si>
+    <t>gen-or-revoke-vid-failure_SMS</t>
+  </si>
+  <si>
+    <t>get-my-uin-card-request-received_SMS</t>
+  </si>
+  <si>
+    <t>get-my-uin-card-success_SMS</t>
+  </si>
+  <si>
+    <t>get-my-uin-card-failure_SMS</t>
+  </si>
+  <si>
+    <t>verify-my-phone-email-request-received_SMS</t>
+  </si>
+  <si>
+    <t>verify-my-phone-email-success_SMS</t>
+  </si>
+  <si>
+    <t>verify-my-phone-email-failure_SMS</t>
+  </si>
+  <si>
+    <t>cust-and-down-my-card-request-received_SMS</t>
+  </si>
+  <si>
+    <t>cust-and-down-my-card-success_SMS</t>
+  </si>
+  <si>
+    <t>cust-and-down-my-card-failure_SMS</t>
+  </si>
+  <si>
+    <t>Request received sms to order a physical card</t>
+  </si>
+  <si>
+    <t>Success sms to order a physical card</t>
+  </si>
+  <si>
+    <t>Failure sms to order a physical card</t>
+  </si>
+  <si>
+    <t>Request received sms to share my credential with a partner</t>
+  </si>
+  <si>
+    <t>Success sms to share my credential with a partner</t>
+  </si>
+  <si>
+    <t>Failure sms to share my credential with a partner</t>
+  </si>
+  <si>
+    <t>Request received sms to lock/unlock authentication</t>
+  </si>
+  <si>
+    <t>Success sms to lock/unlock authentication</t>
+  </si>
+  <si>
+    <t>Failure sms to lock/unlock authentication</t>
+  </si>
+  <si>
+    <t>Request received sms to self update demographic data</t>
+  </si>
+  <si>
+    <t>Success sms to self update demographic data</t>
+  </si>
+  <si>
+    <t>Failure sms to self update demographic data</t>
+  </si>
+  <si>
+    <t>Request received sms to generate or revoke VID</t>
+  </si>
+  <si>
+    <t>Success sms to generate or revoke VID</t>
+  </si>
+  <si>
+    <t>Failure sms to generate or revoke VID</t>
+  </si>
+  <si>
+    <t>Request received sms to get my UIN card</t>
+  </si>
+  <si>
+    <t>Success sms to get my UIN card</t>
+  </si>
+  <si>
+    <t>Failure sms to get my UIN card</t>
+  </si>
+  <si>
+    <t>Request received sms to verify my phone and email</t>
+  </si>
+  <si>
+    <t>Success sms to verify my phone and email</t>
+  </si>
+  <si>
+    <t>Failure sms to verify my phone and email</t>
   </si>
 </sst>
 </file>
@@ -1638,10 +1782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1220"/>
+  <dimension ref="A1:D1364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1212" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1223" sqref="C1223"/>
+    <sheetView tabSelected="1" topLeftCell="A1355" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1366" sqref="E1366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18731,6 +18875,2022 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1221" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1221" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1222" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1222" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1223" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1223" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1224" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1224" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1225" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1225" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1226" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1226" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1227" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1227" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1228" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1228" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1229" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1229" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1230" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1230" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1231" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1231" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1232" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1232" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1233" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1233" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1234" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1234" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1235" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1235" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1236" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1236" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1237" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1237" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1238" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1238" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1239" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1239" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1240" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1240" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1241" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1241" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1242" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1242" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1243" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1243" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1244" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1244" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1245" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1245" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1246" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1246" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1247" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1247" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1248" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1248" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1249" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1249" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1250" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1250" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1251" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1251" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1252" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1252" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1253" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1253" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1254" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1254" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1255" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1255" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1256" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1256" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1257" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1257" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1258" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1258" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1259" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1259" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1260" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1260" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1261" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1261" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1262" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1262" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1263" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1263" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1264" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1264" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1265" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1265" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1266" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1266" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1267" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1267" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1268" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1268" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1269" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1269" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1270" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1270" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1271" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1271" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1272" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1272" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1273" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1273" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1274" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1274" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1275" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1275" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1276" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1276" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1277" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1277" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1278" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1278" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1279" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1279" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1280" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1280" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1281" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1281" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1282" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1282" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1283" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1283" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1284" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1284" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1285" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1285" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1286" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1286" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1287" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1287" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1288" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1288" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1289" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1289" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1290" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1290" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1291" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1291" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1292" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1292" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1293" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1293" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1294" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>449</v>
+      </c>
+      <c r="D1294" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1295" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1295" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1296" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1296" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1297" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>449</v>
+      </c>
+      <c r="D1297" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1298" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1298" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1299" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1299" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1300" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>449</v>
+      </c>
+      <c r="D1300" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1301" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1301" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1302" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1302" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1303" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>449</v>
+      </c>
+      <c r="D1303" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1304" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1304" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1305" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1305" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1306" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>449</v>
+      </c>
+      <c r="D1306" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1307" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1307" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1308" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1308" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1309" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>449</v>
+      </c>
+      <c r="D1309" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1310" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1310" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1311" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1311" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1312" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>428</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1312" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1313" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>429</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1313" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1314" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1314" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1315" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>428</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1315" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1316" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>429</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1316" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1317" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1317" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1318" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>428</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1318" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1319" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>429</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1319" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1320" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1320" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1321" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>428</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1321" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1322" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>429</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1322" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1323" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1323" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1324" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>428</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1324" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1325" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>429</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1325" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1326" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1326" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1327" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>428</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1327" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1328" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>429</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1328" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1329" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>454</v>
+      </c>
+      <c r="D1329" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1330" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1330" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1331" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1331" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1332" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>454</v>
+      </c>
+      <c r="D1332" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1333" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1333" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1334" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1334" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1335" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>454</v>
+      </c>
+      <c r="D1335" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1336" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1336" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1337" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1337" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1338" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>454</v>
+      </c>
+      <c r="D1338" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1339" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1339" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1340" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1340" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1341" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>454</v>
+      </c>
+      <c r="D1341" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1342" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1342" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1343" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1343" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1344" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>454</v>
+      </c>
+      <c r="D1344" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1345" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1345" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1346" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1346" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1347" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1347" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1348" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1348" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1349" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>435</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1349" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1350" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1350" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1351" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1351" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1352" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>435</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1352" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1353" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1353" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1354" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1354" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1355" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>435</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1355" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1356" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1356" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1357" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1357" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1358" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>435</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1358" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1359" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1359" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1360" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1360" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1361" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>435</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1361" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1362" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1362" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1363" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1363" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1364" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>435</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1364" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D400" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\mosipProject\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A3A26F-95A9-4C85-8CA3-08DCC114D7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FF07AF-CA2A-48CC-A45E-007DD100793A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5456" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6032" uniqueCount="508">
   <si>
     <t>lang_code</t>
   </si>
@@ -1408,6 +1408,150 @@
   </si>
   <si>
     <t>Failure sms to verify my phone and email</t>
+  </si>
+  <si>
+    <t>Request received bell notify to customize and download my card</t>
+  </si>
+  <si>
+    <t>Success bell notify to customize and download my card</t>
+  </si>
+  <si>
+    <t>Failure bell notify to customize and download my card</t>
+  </si>
+  <si>
+    <t>Request received bell notify to order a physical card</t>
+  </si>
+  <si>
+    <t>Success bell notify to order a physical card</t>
+  </si>
+  <si>
+    <t>Failure bell notify to order a physical card</t>
+  </si>
+  <si>
+    <t>Request received bell notify to share my credential with a partner</t>
+  </si>
+  <si>
+    <t>Success bell notify to share my credential with a partner</t>
+  </si>
+  <si>
+    <t>Failure bell notify to share my credential with a partner</t>
+  </si>
+  <si>
+    <t>Request received bell notify to lock/unlock authentication</t>
+  </si>
+  <si>
+    <t>Success bell notify to lock/unlock authentication</t>
+  </si>
+  <si>
+    <t>Failure bell notify to lock/unlock authentication</t>
+  </si>
+  <si>
+    <t>Request received bell notify to self update demographic data</t>
+  </si>
+  <si>
+    <t>Success bell notify to self update demographic data</t>
+  </si>
+  <si>
+    <t>Failure bell notify to self update demographic data</t>
+  </si>
+  <si>
+    <t>Request received bell notify to generate or revoke VID</t>
+  </si>
+  <si>
+    <t>Success bell notify to generate or revoke VID</t>
+  </si>
+  <si>
+    <t>Failure bell notify to generate or revoke VID</t>
+  </si>
+  <si>
+    <t>Request received bell notify to get my UIN card</t>
+  </si>
+  <si>
+    <t>Success bell notify to get my UIN card</t>
+  </si>
+  <si>
+    <t>Failure bell notify to get my UIN card</t>
+  </si>
+  <si>
+    <t>Request received bell notify to verify my phone and email</t>
+  </si>
+  <si>
+    <t>Success bell notify to verify my phone and email</t>
+  </si>
+  <si>
+    <t>Failure bell notify to verify my phone and email</t>
+  </si>
+  <si>
+    <t>cust-and-down-my-card-request-received_BELL</t>
+  </si>
+  <si>
+    <t>cust-and-down-my-card-success_BELL</t>
+  </si>
+  <si>
+    <t>cust-and-down-my-card-failure_BELL</t>
+  </si>
+  <si>
+    <t>order-a-physical-card-request-received_BELL</t>
+  </si>
+  <si>
+    <t>order-a-physical-card-success_BELL</t>
+  </si>
+  <si>
+    <t>order-a-physical-card-failure_BELL</t>
+  </si>
+  <si>
+    <t>share-cred-with-partner-request-received_BELL</t>
+  </si>
+  <si>
+    <t>share-cred-with-partner-success_BELL</t>
+  </si>
+  <si>
+    <t>share-cred-with-partner-failure_BELL</t>
+  </si>
+  <si>
+    <t>lock-unlock-auth-request-received_BELL</t>
+  </si>
+  <si>
+    <t>lock-unlock-auth-success_BELL</t>
+  </si>
+  <si>
+    <t>lock-unlock-auth-failure_BELL</t>
+  </si>
+  <si>
+    <t>update-demo-data-request-received_BELL</t>
+  </si>
+  <si>
+    <t>update-demo-data-success_BELL</t>
+  </si>
+  <si>
+    <t>update-demo-data-failure_BELL</t>
+  </si>
+  <si>
+    <t>gen-or-revoke-vid-request-received_BELL</t>
+  </si>
+  <si>
+    <t>gen-or-revoke-vid-success_BELL</t>
+  </si>
+  <si>
+    <t>gen-or-revoke-vid-failure_BELL</t>
+  </si>
+  <si>
+    <t>get-my-uin-card-request-received_BELL</t>
+  </si>
+  <si>
+    <t>get-my-uin-card-success_BELL</t>
+  </si>
+  <si>
+    <t>get-my-uin-card-failure_BELL</t>
+  </si>
+  <si>
+    <t>verify-my-phone-email-request-received_BELL</t>
+  </si>
+  <si>
+    <t>verify-my-phone-email-success_BELL</t>
+  </si>
+  <si>
+    <t>verify-my-phone-email-failure_BELL</t>
   </si>
 </sst>
 </file>
@@ -1782,10 +1926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1364"/>
+  <dimension ref="A1:D1508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1355" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1366" sqref="E1366"/>
+    <sheetView tabSelected="1" topLeftCell="A1501" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1374" sqref="C1374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20891,6 +21035,2022 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1365" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1365" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1366" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1366" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1367" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1367" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1368" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1368" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1369" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1369" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1370" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1370" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1371" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1371" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1372" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1372" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1373" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1373" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1374" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1374" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1375" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1375" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1376" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1376" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1377" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1377" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1378" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1378" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1379" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1379" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1380" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1380" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1381" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1381" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1382" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1382" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1383" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1383" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1384" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1384" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1385" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>489</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1385" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1386" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1386" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1387" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1387" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1388" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>489</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1388" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1389" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1389" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1390" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1390" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1391" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>489</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1391" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1392" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1392" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1393" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1393" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1394" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>489</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1394" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1395" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1395" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1396" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1396" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1397" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>489</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1397" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1398" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1398" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1399" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1399" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1400" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>489</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1400" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1401" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1401" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1402" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1402" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1403" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>468</v>
+      </c>
+      <c r="D1403" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1404" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1404" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1405" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1405" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1406" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>468</v>
+      </c>
+      <c r="D1406" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1407" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1407" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1408" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1408" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1409" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>468</v>
+      </c>
+      <c r="D1409" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1410" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1410" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1411" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1411" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1412" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>468</v>
+      </c>
+      <c r="D1412" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1413" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1413" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1414" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1414" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1415" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>468</v>
+      </c>
+      <c r="D1415" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1416" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1416" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1417" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1417" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1418" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>468</v>
+      </c>
+      <c r="D1418" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1419" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1419" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1420" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1420" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1421" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>471</v>
+      </c>
+      <c r="D1421" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1422" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1422" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1423" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1423" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1424" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>471</v>
+      </c>
+      <c r="D1424" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1425" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1425" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1426" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1426" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1427" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>471</v>
+      </c>
+      <c r="D1427" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1428" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1428" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1429" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1429" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1430" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>471</v>
+      </c>
+      <c r="D1430" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1431" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1431" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1432" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1432" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1433" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>471</v>
+      </c>
+      <c r="D1433" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1434" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1434" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1435" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1435" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1436" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>471</v>
+      </c>
+      <c r="D1436" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1437" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1437" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1438" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1438" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1439" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1439" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1440" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1440" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1441" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1441" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1442" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1442" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1443" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1443" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1444" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1444" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1445" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1445" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1446" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1446" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1447" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1447" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1448" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1448" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1449" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1449" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1450" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1450" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1451" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1451" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1452" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1452" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1453" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1453" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1454" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1454" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1455" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>499</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1455" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1456" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1456" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1457" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1457" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1458" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>499</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1458" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1459" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1459" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1460" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1460" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1461" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>499</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1461" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1462" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1462" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1463" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1463" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1464" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>499</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1464" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1465" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1465" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1466" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1466" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1467" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>499</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1467" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1468" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1468" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1469" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1469" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1470" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>499</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1470" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1471" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1471" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1472" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1472" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1473" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1473" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1474" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1474" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1475" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1475" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1476" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1476" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1477" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1477" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1478" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1478" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1479" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1479" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1480" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1480" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1481" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1481" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1482" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1482" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1483" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1483" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1484" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1484" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1485" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1485" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1486" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1486" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1487" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1487" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1488" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1488" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1489" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1489" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1490" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1490" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1491" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>505</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1491" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1492" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>506</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1492" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1493" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1493" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1494" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>505</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1494" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1495" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>506</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1495" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1496" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1496" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1497" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>505</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1497" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1498" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>506</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1498" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1499" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1499" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1500" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>505</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1500" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1501" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>506</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1501" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1502" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1502" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1503" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>505</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1503" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1504" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>506</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1504" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1505" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1505" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1506" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>505</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1506" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1507" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>506</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1507" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1508" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1508" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D400" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\mosipProject\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FF07AF-CA2A-48CC-A45E-007DD100793A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1066BDBC-FAA1-420C-B08E-022F60BC9692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6032" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6416" uniqueCount="540">
   <si>
     <t>lang_code</t>
   </si>
@@ -1552,6 +1552,102 @@
   </si>
   <si>
     <t>verify-my-phone-email-failure_BELL</t>
+  </si>
+  <si>
+    <t>Positive purpose to customize and download my card</t>
+  </si>
+  <si>
+    <t>Negative purpose to customize and download my card</t>
+  </si>
+  <si>
+    <t>Positive purpose to order a physical card</t>
+  </si>
+  <si>
+    <t>Negative purpose to order a physical card</t>
+  </si>
+  <si>
+    <t>Positive purpose to share my credential with a partner</t>
+  </si>
+  <si>
+    <t>Negative purpose to share my credential with a partner</t>
+  </si>
+  <si>
+    <t>Positive purpose to lock/unlock various authentication types</t>
+  </si>
+  <si>
+    <t>Negative purpose to lock/unlock various authentication types</t>
+  </si>
+  <si>
+    <t>Positive Purpose to self update demographic data</t>
+  </si>
+  <si>
+    <t>Negative Purpose to self update demographic data</t>
+  </si>
+  <si>
+    <t>Positive Purpose  to generate or revoke VIDs</t>
+  </si>
+  <si>
+    <t>Negative Purpose to generate or revoke VIDs</t>
+  </si>
+  <si>
+    <t>Positive purpose to get my UIN card</t>
+  </si>
+  <si>
+    <t>Negative purpose to get my UIN card</t>
+  </si>
+  <si>
+    <t>Positive purpose to verify my phone number and email ID</t>
+  </si>
+  <si>
+    <t>Negative purpose to verify my phone number and email ID</t>
+  </si>
+  <si>
+    <t>cust-and-down-my-card-positive-purpose</t>
+  </si>
+  <si>
+    <t>cust-and-down-my-card-negative-purpose</t>
+  </si>
+  <si>
+    <t>order-a-physical-card-positive purpose</t>
+  </si>
+  <si>
+    <t>order-a-physical-card-negative purpose</t>
+  </si>
+  <si>
+    <t>share-cred-with-partner-positive-purpose</t>
+  </si>
+  <si>
+    <t>share-cred-with-partner-negative-purpose</t>
+  </si>
+  <si>
+    <t>lock-unlock-auth-positive-purpose</t>
+  </si>
+  <si>
+    <t>lock-unlock-auth-negative-purpose</t>
+  </si>
+  <si>
+    <t>update-demo-data-positive-purpose</t>
+  </si>
+  <si>
+    <t>update-demo-data-negative-purpose</t>
+  </si>
+  <si>
+    <t>gen-or-revoke-vid-positive-purpose</t>
+  </si>
+  <si>
+    <t>gen-or-revoke-vid-negative-purpose</t>
+  </si>
+  <si>
+    <t>get-my-uin-card-positive-purpose</t>
+  </si>
+  <si>
+    <t>get-my-uin-card-negative-purpose</t>
+  </si>
+  <si>
+    <t>verify-my-phone-email-positive-purpose</t>
+  </si>
+  <si>
+    <t>verify-my-phone-email-negative-purpose</t>
   </si>
 </sst>
 </file>
@@ -1926,10 +2022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1508"/>
+  <dimension ref="A1:D1604"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1501" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1374" sqref="C1374"/>
+    <sheetView tabSelected="1" topLeftCell="A1597" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1606" sqref="F1606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23051,6 +23147,1350 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1509" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1509" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1510" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>525</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1510" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1511" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1511" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1512" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>525</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1512" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1513" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1513" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1514" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>525</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1514" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1515" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1515" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1516" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>525</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1516" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1517" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1517" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1518" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>525</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1518" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1519" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1519" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1520" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>525</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1520" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1521" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1521" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1522" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>527</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>511</v>
+      </c>
+      <c r="D1522" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1523" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1523" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1524" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>527</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>511</v>
+      </c>
+      <c r="D1524" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1525" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1525" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1526" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>527</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>511</v>
+      </c>
+      <c r="D1526" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1527" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1527" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1528" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>527</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>511</v>
+      </c>
+      <c r="D1528" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1529" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1529" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1530" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>527</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>511</v>
+      </c>
+      <c r="D1530" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1531" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1531" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1532" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>527</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>511</v>
+      </c>
+      <c r="D1532" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1533" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1533" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1534" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1534" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1535" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1535" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1536" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1536" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1537" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1537" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1538" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1538" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1539" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1539" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1540" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1540" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1541" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1541" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1542" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1542" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1543" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1543" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1544" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1544" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1545" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1545" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1546" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>531</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>515</v>
+      </c>
+      <c r="D1546" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1547" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1547" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1548" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>531</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>515</v>
+      </c>
+      <c r="D1548" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1549" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1549" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1550" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>531</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>515</v>
+      </c>
+      <c r="D1550" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1551" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1551" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1552" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>531</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>515</v>
+      </c>
+      <c r="D1552" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1553" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1553" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1554" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>531</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>515</v>
+      </c>
+      <c r="D1554" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1555" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1555" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1556" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>531</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>515</v>
+      </c>
+      <c r="D1556" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1557" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>532</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1557" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1558" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1558" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1559" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>532</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1559" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1560" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1560" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1561" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>532</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1561" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1562" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1562" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1563" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>532</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1563" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1564" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1564" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1565" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>532</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1565" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1566" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1566" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1567" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>532</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1567" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1568" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1568" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1569" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1569" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1570" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>535</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1570" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1571" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1571" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1572" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>535</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1572" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1573" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1573" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1574" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>535</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1574" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1575" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1575" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1576" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>535</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1576" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1577" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1577" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1578" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>535</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1578" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1579" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1579" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1580" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>535</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1580" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1581" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>536</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1581" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1582" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>537</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1582" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1583" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>536</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1583" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1584" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>537</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1584" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1585" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>536</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1585" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1586" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>537</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1586" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1587" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>536</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1587" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1588" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>537</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1588" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1589" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>536</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1589" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1590" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>537</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1590" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1591" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>536</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1591" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1592" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>537</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1592" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1593" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>522</v>
+      </c>
+      <c r="D1593" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1594" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>523</v>
+      </c>
+      <c r="D1594" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1595" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>522</v>
+      </c>
+      <c r="D1595" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1596" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>523</v>
+      </c>
+      <c r="D1596" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1597" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>522</v>
+      </c>
+      <c r="D1597" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1598" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>523</v>
+      </c>
+      <c r="D1598" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1599" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>522</v>
+      </c>
+      <c r="D1599" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1600" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>523</v>
+      </c>
+      <c r="D1600" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1601" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>522</v>
+      </c>
+      <c r="D1601" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1602" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>523</v>
+      </c>
+      <c r="D1602" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1603" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>522</v>
+      </c>
+      <c r="D1603" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1604" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>523</v>
+      </c>
+      <c r="D1604" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D400" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\mosipProject\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1066BDBC-FAA1-420C-B08E-022F60BC9692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB989748-A34B-4761-87FA-0DB7DC1CD762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6416" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6608" uniqueCount="556">
   <si>
     <t>lang_code</t>
   </si>
@@ -1648,6 +1648,54 @@
   </si>
   <si>
     <t>verify-my-phone-email-negative-purpose</t>
+  </si>
+  <si>
+    <t>Success summary to customize and download my card</t>
+  </si>
+  <si>
+    <t>Success summary to order a physical card</t>
+  </si>
+  <si>
+    <t>Success summary to share my credential with a partner</t>
+  </si>
+  <si>
+    <t>Success summary to lock/unlock various authentication types</t>
+  </si>
+  <si>
+    <t>Success summary to self update demographic data</t>
+  </si>
+  <si>
+    <t>Success summary to generate or revoke VIDs</t>
+  </si>
+  <si>
+    <t>Success summary to get my UIN card</t>
+  </si>
+  <si>
+    <t>Success summary to verify my phone and email</t>
+  </si>
+  <si>
+    <t>cust-and-down-my-card-success-summary</t>
+  </si>
+  <si>
+    <t>order-a-physical-card-success-summary</t>
+  </si>
+  <si>
+    <t>share-cred-with-partner-success-summary</t>
+  </si>
+  <si>
+    <t>lock-unlock-auth-success-summary</t>
+  </si>
+  <si>
+    <t>update-demo-data-success-summary</t>
+  </si>
+  <si>
+    <t>gen-or-revoke-vid-success-summary</t>
+  </si>
+  <si>
+    <t>get-my-uin-card-success-summary</t>
+  </si>
+  <si>
+    <t>verify-my-phone-email-success-summary</t>
   </si>
 </sst>
 </file>
@@ -2022,10 +2070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1604"/>
+  <dimension ref="A1:D1652"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1597" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1606" sqref="F1606"/>
+    <sheetView tabSelected="1" topLeftCell="B1639" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1647" sqref="C1647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24491,6 +24539,678 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1605" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>548</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>540</v>
+      </c>
+      <c r="D1605" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1606" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>541</v>
+      </c>
+      <c r="D1606" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1607" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1607" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1608" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1608" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1609" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>544</v>
+      </c>
+      <c r="D1609" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1610" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>545</v>
+      </c>
+      <c r="D1610" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1611" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>546</v>
+      </c>
+      <c r="D1611" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1612" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>555</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1612" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1613" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>548</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>540</v>
+      </c>
+      <c r="D1613" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1614" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>541</v>
+      </c>
+      <c r="D1614" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1615" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1615" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1616" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1616" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1617" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>544</v>
+      </c>
+      <c r="D1617" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1618" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>545</v>
+      </c>
+      <c r="D1618" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1619" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>546</v>
+      </c>
+      <c r="D1619" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1620" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>555</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1620" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1621" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>548</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>540</v>
+      </c>
+      <c r="D1621" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1622" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>541</v>
+      </c>
+      <c r="D1622" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1623" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1623" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1624" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1624" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1625" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>544</v>
+      </c>
+      <c r="D1625" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1626" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>545</v>
+      </c>
+      <c r="D1626" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1627" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>546</v>
+      </c>
+      <c r="D1627" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1628" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>555</v>
+      </c>
+      <c r="C1628" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1628" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1629" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>548</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>540</v>
+      </c>
+      <c r="D1629" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1630" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>541</v>
+      </c>
+      <c r="D1630" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1631" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1631" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1631" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1632" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1632" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1633" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1633" t="s">
+        <v>544</v>
+      </c>
+      <c r="D1633" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1634" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>545</v>
+      </c>
+      <c r="D1634" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1635" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>546</v>
+      </c>
+      <c r="D1635" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1636" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1636" t="s">
+        <v>555</v>
+      </c>
+      <c r="C1636" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1636" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1637" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1637" t="s">
+        <v>548</v>
+      </c>
+      <c r="C1637" t="s">
+        <v>540</v>
+      </c>
+      <c r="D1637" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1638" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1638" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>541</v>
+      </c>
+      <c r="D1638" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1639" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1639" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1639" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1640" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1640" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1640" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1641" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>544</v>
+      </c>
+      <c r="D1641" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1642" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>545</v>
+      </c>
+      <c r="D1642" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1643" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1643" t="s">
+        <v>546</v>
+      </c>
+      <c r="D1643" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1644" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>555</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1644" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1645" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>548</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>540</v>
+      </c>
+      <c r="D1645" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1646" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1646" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>541</v>
+      </c>
+      <c r="D1646" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1647" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1647" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1647" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1647" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1648" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1648" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1648" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1649" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>544</v>
+      </c>
+      <c r="D1649" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1650" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1650" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>545</v>
+      </c>
+      <c r="D1650" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1651" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1651" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1651" t="s">
+        <v>546</v>
+      </c>
+      <c r="D1651" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1652" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1652" t="s">
+        <v>555</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1652" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D400" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\mosipProject\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB989748-A34B-4761-87FA-0DB7DC1CD762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5E3C82-F18A-4944-9D26-313423C174F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6608" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6612" uniqueCount="558">
   <si>
     <t>lang_code</t>
   </si>
@@ -1696,6 +1696,12 @@
   </si>
   <si>
     <t>verify-my-phone-email-success-summary</t>
+  </si>
+  <si>
+    <t>supporting-docs-list</t>
+  </si>
+  <si>
+    <t>List of supporting documents</t>
   </si>
 </sst>
 </file>
@@ -2070,10 +2076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1652"/>
+  <dimension ref="A1:D1653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1639" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1647" sqref="C1647"/>
+    <sheetView tabSelected="1" topLeftCell="A1648" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1654" sqref="C1654"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25211,6 +25217,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1653" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1653" t="s">
+        <v>556</v>
+      </c>
+      <c r="C1653" t="s">
+        <v>557</v>
+      </c>
+      <c r="D1653" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D400" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D43C53-239F-469D-AB6A-5090435615F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0A10FB-946C-47A9-8512-2F6BEBDA594A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$400</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6616" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6636" uniqueCount="570">
   <si>
     <t>lang_code</t>
   </si>
@@ -1708,13 +1708,43 @@
   </si>
   <si>
     <t>Acknowledgement for manage my vid</t>
+  </si>
+  <si>
+    <t>acknowledgement-order-a-physical-card</t>
+  </si>
+  <si>
+    <t>Acknowledgement for Order a physical card</t>
+  </si>
+  <si>
+    <t>Acknowledgement for Download a personalized card</t>
+  </si>
+  <si>
+    <t>acknowledgement-download-a-personalized-card</t>
+  </si>
+  <si>
+    <t>Acknowledgement for Update demographic data</t>
+  </si>
+  <si>
+    <t>acknowledgement-update-demographic-data</t>
+  </si>
+  <si>
+    <t>acknowledgement-verify-email-id-or-phone-number</t>
+  </si>
+  <si>
+    <t>Acknowledgement for verify email id or phone number</t>
+  </si>
+  <si>
+    <t>acknowledgement-secure-my-id</t>
+  </si>
+  <si>
+    <t>Acknowledgement for Secure my Id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1726,7 +1756,13 @@
       <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1764,7 +1800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1774,6 +1810,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2082,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1654"/>
+  <dimension ref="A1:D1659"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1644" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1655" sqref="A1655"/>
+    <sheetView tabSelected="1" topLeftCell="A1647" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1661" sqref="B1661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25251,9 +25288,79 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1655" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1655" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1655" t="s">
+        <v>560</v>
+      </c>
+      <c r="C1655" t="s">
+        <v>561</v>
+      </c>
+      <c r="D1655" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1656" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1656" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1656" t="s">
+        <v>562</v>
+      </c>
+      <c r="D1656" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1657" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1657" t="s">
+        <v>565</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1657" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1658" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1658" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1658" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1658" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1659" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>568</v>
+      </c>
+      <c r="C1659" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="D1659" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D400" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1072510\Documents\GitHub\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1091460\Downloads\mosip-data-1.2.0.1\mosip-data-1.2.0.1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B61D33D-4540-41E5-8472-E3E116E042DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48657999-84A3-4567-8390-28D715F6F362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -987,16 +987,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1279,6328 +1275,6329 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E451" sqref="E451"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="37.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" style="1"/>
+    <col min="1" max="1" width="8.453125" style="2"/>
+    <col min="2" max="2" width="37.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.453125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="A31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="A33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="A34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="A35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="A36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="A37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="A38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="A39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="A40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="A41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="A42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="A43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="A44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="A45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="A46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="A47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="A48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="A49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="A50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="A51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="A52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="A53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="A54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="A55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="A56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="A57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="A58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="A59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="A60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="A61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="A62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="A63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="A64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="A65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="A66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="A67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="A68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="A69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="A70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="A71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="A72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="A73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="A74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="A75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="A76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="A77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="A78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="A79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="A80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="A81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="A82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="A83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="A84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="A85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="A86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="A87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="A88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="A89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="A90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="A91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="A92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="A93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="A94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="A95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="A96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="A97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="A98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="A99" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="A100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="A101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="A102" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="A103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="A104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="A105" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="A106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B107" t="s">
+      <c r="A107" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="A108" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="A109" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="A110" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="A111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="A112" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="A113" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="A114" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="A115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="A116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B117" t="s">
+      <c r="A117" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B118" t="s">
+      <c r="A118" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="A119" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B120" t="s">
+      <c r="A120" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="A121" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B122" t="s">
+      <c r="A122" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B123" t="s">
+      <c r="A123" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B124" t="s">
+      <c r="A124" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B125" t="s">
+      <c r="A125" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B126" t="s">
+      <c r="A126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B127" t="s">
+      <c r="A127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B128" t="s">
+      <c r="A128" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B129" t="s">
+      <c r="A129" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="A130" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B131" t="s">
+      <c r="A131" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B132" t="s">
+      <c r="A132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B133" t="s">
+      <c r="A133" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="A134" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="A135" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B136" t="s">
+      <c r="A136" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B137" t="s">
+      <c r="A137" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B138" t="s">
+      <c r="A138" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B139" t="s">
+      <c r="A139" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B140" t="s">
+      <c r="A140" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B141" t="s">
+      <c r="A141" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B142" t="s">
+      <c r="A142" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B143" t="s">
+      <c r="A143" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B144" t="s">
+      <c r="A144" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B145" t="s">
+      <c r="A145" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B146" t="s">
+      <c r="A146" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B147" t="s">
+      <c r="A147" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B148" t="s">
+      <c r="A148" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B149" t="s">
+      <c r="A149" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A150" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B150" t="s">
+      <c r="A150" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A151" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B151" t="s">
+      <c r="A151" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B152" t="s">
+      <c r="A152" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B153" t="s">
+      <c r="A153" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B154" t="s">
+      <c r="A154" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B155" t="s">
+      <c r="A155" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B156" t="s">
+      <c r="A156" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B157" t="s">
+      <c r="A157" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B158" t="s">
+      <c r="A158" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B159" t="s">
+      <c r="A159" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B160" t="s">
+      <c r="A160" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B161" t="s">
+      <c r="A161" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B162" t="s">
+      <c r="A162" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B163" t="s">
+      <c r="A163" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D163" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B164" t="s">
+      <c r="A164" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B165" t="s">
+      <c r="A165" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B166" t="s">
+      <c r="A166" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D166" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B167" t="s">
+      <c r="A167" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A168" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B168" t="s">
+      <c r="A168" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D168" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B169" t="s">
+      <c r="A169" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B170" t="s">
+      <c r="A170" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A171" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B171" t="s">
+      <c r="A171" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B172" t="s">
+      <c r="A172" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D172" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B173" t="s">
+      <c r="A173" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D173" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A174" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B174" t="s">
+      <c r="A174" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D174" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A175" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B175" t="s">
+      <c r="A175" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D175" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B176" t="s">
+      <c r="A176" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D176" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A177" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B177" t="s">
+      <c r="A177" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D177" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A178" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B178" t="s">
+      <c r="A178" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D178" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B179" t="s">
+      <c r="A179" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D179" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A180" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B180" t="s">
+      <c r="A180" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D180" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B181" t="s">
+      <c r="A181" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D181" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B182" t="s">
+      <c r="A182" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D182" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B183" t="s">
+      <c r="A183" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D183" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B184" t="s">
+      <c r="A184" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D184" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A185" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B185" t="s">
+      <c r="A185" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D185" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A186" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B186" t="s">
+      <c r="A186" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D186" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A187" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B187" t="s">
+      <c r="A187" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D187" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B188" t="s">
+      <c r="A188" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D188" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A189" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B189" t="s">
+      <c r="A189" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D189" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B190" t="s">
+      <c r="A190" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D190" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B191" t="s">
+      <c r="A191" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D191" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A192" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B192" t="s">
+      <c r="A192" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D192" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A193" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B193" t="s">
+      <c r="A193" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D193" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A194" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B194" t="s">
+      <c r="A194" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D194" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A195" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B195" t="s">
+      <c r="A195" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D195" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B196" t="s">
+      <c r="A196" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D196" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B197" t="s">
+      <c r="A197" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D197" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A198" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B198" t="s">
+      <c r="A198" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="D198" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A199" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B199" t="s">
+      <c r="A199" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D199" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B200" t="s">
+      <c r="A200" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D200" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A201" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B201" t="s">
+      <c r="A201" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D201" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A202" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B202" t="s">
+      <c r="A202" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="D202" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A203" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B203" t="s">
+      <c r="A203" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D203" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A204" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B204" t="s">
+      <c r="A204" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="D204" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A205" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B205" t="s">
+      <c r="A205" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D205" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A206" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B206" t="s">
+      <c r="A206" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D206" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A207" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B207" t="s">
+      <c r="A207" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D207" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A208" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B208" t="s">
+      <c r="A208" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D208" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A209" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B209" t="s">
+      <c r="A209" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="D209" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A210" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B210" t="s">
+      <c r="A210" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D210" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A211" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B211" t="s">
+      <c r="A211" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D211" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A212" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B212" t="s">
+      <c r="A212" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="D212" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A213" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B213" t="s">
+      <c r="A213" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="D213" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A214" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B214" t="s">
+      <c r="A214" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="D214" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A215" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B215" t="s">
+      <c r="A215" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="D215" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A216" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B216" t="s">
+      <c r="A216" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="D216" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A217" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B217" t="s">
+      <c r="A217" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="D217" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A218" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B218" t="s">
+      <c r="A218" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="D218" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A219" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B219" t="s">
+      <c r="A219" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D219" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A220" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B220" t="s">
+      <c r="A220" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="D220" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A221" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B221" t="s">
+      <c r="A221" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="D221" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A222" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B222" t="s">
+      <c r="A222" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="D222" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A223" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B223" t="s">
+      <c r="A223" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="D223" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A224" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B224" t="s">
+      <c r="A224" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="D224" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A225" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B225" t="s">
+      <c r="A225" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D225" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A226" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B226" t="s">
+      <c r="A226" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="D226" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A227" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B227" t="s">
+      <c r="A227" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="D227" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A228" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B228" t="s">
+      <c r="A228" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="D228" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A229" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B229" t="s">
+      <c r="A229" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="D229" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A230" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B230" t="s">
+      <c r="A230" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="D230" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A231" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B231" t="s">
+      <c r="A231" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="D231" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A232" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B232" t="s">
+      <c r="A232" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="D232" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A233" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B233" t="s">
+      <c r="A233" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="D233" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A234" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B234" t="s">
+      <c r="A234" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="D234" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A235" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B235" t="s">
+      <c r="A235" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="D235" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A236" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B236" t="s">
+      <c r="A236" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="D236" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A237" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B237" t="s">
+      <c r="A237" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C237" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="D237" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A238" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B238" t="s">
+      <c r="A238" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C238" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="D238" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A239" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B239" t="s">
+      <c r="A239" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C239" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="D239" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A240" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B240" t="s">
+      <c r="A240" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C240" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="D240" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A241" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B241" t="s">
+      <c r="A241" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C241" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="D241" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A242" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B242" t="s">
+      <c r="A242" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C242" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="D242" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A243" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B243" t="s">
+      <c r="A243" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C243" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="D243" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A244" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B244" t="s">
+      <c r="A244" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="D244" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A245" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B245" t="s">
+      <c r="A245" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="D245" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A246" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B246" t="s">
+      <c r="A246" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="D246" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A247" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B247" t="s">
+      <c r="A247" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="D247" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A248" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B248" t="s">
+      <c r="A248" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C248" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="D248" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A249" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B249" t="s">
+      <c r="A249" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D249" s="1" t="s">
+      <c r="D249" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A250" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B250" t="s">
+      <c r="A250" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="D250" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A251" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B251" t="s">
+      <c r="A251" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D251" s="1" t="s">
+      <c r="D251" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A252" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B252" t="s">
+      <c r="A252" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="D252" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A253" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B253" t="s">
+      <c r="A253" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D253" s="1" t="s">
+      <c r="D253" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A254" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B254" t="s">
+      <c r="A254" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="D254" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A255" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B255" t="s">
+      <c r="A255" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D255" s="1" t="s">
+      <c r="D255" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A256" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B256" t="s">
+      <c r="A256" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C256" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D256" s="1" t="s">
+      <c r="D256" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A257" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B257" t="s">
+      <c r="A257" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="D257" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A258" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B258" t="s">
+      <c r="A258" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C258" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="D258" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A259" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B259" t="s">
+      <c r="A259" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D259" s="1" t="s">
+      <c r="D259" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A260" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B260" t="s">
+      <c r="A260" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C260" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D260" s="1" t="s">
+      <c r="D260" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A261" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B261" t="s">
+      <c r="A261" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C261" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="D261" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A262" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B262" t="s">
+      <c r="A262" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D262" s="1" t="s">
+      <c r="D262" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A263" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B263" t="s">
+      <c r="A263" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B263" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C263" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="D263" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A264" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B264" t="s">
+      <c r="A264" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="D264" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A265" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B265" t="s">
+      <c r="A265" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C265" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D265" s="1" t="s">
+      <c r="D265" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A266" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B266" t="s">
+      <c r="A266" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C266" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D266" s="1" t="s">
+      <c r="D266" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A267" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B267" t="s">
+      <c r="A267" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C267" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D267" s="1" t="s">
+      <c r="D267" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A268" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B268" t="s">
+      <c r="A268" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C268" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D268" s="1" t="s">
+      <c r="D268" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A269" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B269" t="s">
+      <c r="A269" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D269" s="1" t="s">
+      <c r="D269" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A270" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B270" t="s">
+      <c r="A270" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C270" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D270" s="1" t="s">
+      <c r="D270" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A271" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B271" t="s">
+      <c r="A271" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C271" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D271" s="1" t="s">
+      <c r="D271" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A272" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B272" t="s">
+      <c r="A272" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C272" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="D272" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A273" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B273" t="s">
+      <c r="A273" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D273" s="1" t="s">
+      <c r="D273" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A274" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B274" t="s">
+      <c r="A274" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C274" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D274" s="1" t="s">
+      <c r="D274" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A275" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B275" t="s">
+      <c r="A275" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C275" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D275" s="1" t="s">
+      <c r="D275" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A276" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B276" t="s">
+      <c r="A276" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C276" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D276" s="1" t="s">
+      <c r="D276" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A277" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B277" t="s">
+      <c r="A277" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C277" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D277" s="1" t="s">
+      <c r="D277" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A278" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B278" t="s">
+      <c r="A278" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C278" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D278" s="1" t="s">
+      <c r="D278" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A279" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B279" t="s">
+      <c r="A279" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C279" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D279" s="1" t="s">
+      <c r="D279" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A280" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B280" t="s">
+      <c r="A280" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B280" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C280" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D280" s="1" t="s">
+      <c r="D280" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A281" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B281" t="s">
+      <c r="A281" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C281" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D281" s="1" t="s">
+      <c r="D281" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A282" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B282" t="s">
+      <c r="A282" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C282" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D282" s="1" t="s">
+      <c r="D282" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A283" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B283" t="s">
+      <c r="A283" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C283" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D283" s="1" t="s">
+      <c r="D283" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A284" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B284" t="s">
+      <c r="A284" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C284" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D284" s="1" t="s">
+      <c r="D284" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A285" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B285" t="s">
+      <c r="A285" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C285" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D285" s="1" t="s">
+      <c r="D285" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A286" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B286" t="s">
+      <c r="A286" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C286" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D286" s="1" t="s">
+      <c r="D286" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A287" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B287" t="s">
+      <c r="A287" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C287" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D287" s="1" t="s">
+      <c r="D287" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A288" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B288" t="s">
+      <c r="A288" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C288" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D288" s="1" t="s">
+      <c r="D288" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A289" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B289" t="s">
+      <c r="A289" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C289" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D289" s="1" t="s">
+      <c r="D289" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A290" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B290" t="s">
+      <c r="A290" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C290" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D290" s="1" t="s">
+      <c r="D290" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A291" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B291" t="s">
+      <c r="A291" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B291" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C291" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D291" s="1" t="s">
+      <c r="D291" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A292" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B292" t="s">
+      <c r="A292" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C292" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D292" s="1" t="s">
+      <c r="D292" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A293" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B293" t="s">
+      <c r="A293" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C293" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D293" s="1" t="s">
+      <c r="D293" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A294" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B294" t="s">
+      <c r="A294" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C294" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D294" s="1" t="s">
+      <c r="D294" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A295" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B295" t="s">
+      <c r="A295" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C295" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D295" s="1" t="s">
+      <c r="D295" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A296" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B296" t="s">
+      <c r="A296" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C296" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D296" s="1" t="s">
+      <c r="D296" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A297" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B297" t="s">
+      <c r="A297" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C297" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D297" s="1" t="s">
+      <c r="D297" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A298" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B298" t="s">
+      <c r="A298" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B298" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C298" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D298" s="1" t="s">
+      <c r="D298" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A299" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B299" t="s">
+      <c r="A299" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B299" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C299" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D299" s="1" t="s">
+      <c r="D299" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A300" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B300" t="s">
+      <c r="A300" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C300" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D300" s="1" t="s">
+      <c r="D300" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A301" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B301" t="s">
+      <c r="A301" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C301" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D301" s="1" t="s">
+      <c r="D301" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A302" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B302" t="s">
+      <c r="A302" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C302" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D302" s="1" t="s">
+      <c r="D302" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A303" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B303" t="s">
+      <c r="A303" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C303" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D303" s="1" t="s">
+      <c r="D303" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A304" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B304" t="s">
+      <c r="A304" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B304" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C304" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D304" s="1" t="s">
+      <c r="D304" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A305" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B305" t="s">
+      <c r="A305" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C305" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D305" s="1" t="s">
+      <c r="D305" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A306" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B306" t="s">
+      <c r="A306" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B306" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C306" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D306" s="1" t="s">
+      <c r="D306" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A307" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B307" t="s">
+      <c r="A307" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B307" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C307" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D307" s="1" t="s">
+      <c r="D307" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A308" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B308" t="s">
+      <c r="A308" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B308" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C308" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D308" s="1" t="s">
+      <c r="D308" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A309" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B309" t="s">
+      <c r="A309" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C309" t="s">
+      <c r="C309" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D309" s="1" t="s">
+      <c r="D309" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A310" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B310" t="s">
+      <c r="A310" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B310" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C310" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D310" s="1" t="s">
+      <c r="D310" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A311" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B311" t="s">
+      <c r="A311" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B311" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C311" t="s">
+      <c r="C311" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D311" s="1" t="s">
+      <c r="D311" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A312" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B312" t="s">
+      <c r="A312" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B312" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C312" t="s">
+      <c r="C312" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D312" s="1" t="s">
+      <c r="D312" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A313" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B313" t="s">
+      <c r="A313" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B313" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C313" t="s">
+      <c r="C313" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D313" s="1" t="s">
+      <c r="D313" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A314" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B314" t="s">
+      <c r="A314" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B314" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C314" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D314" s="1" t="s">
+      <c r="D314" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A315" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B315" t="s">
+      <c r="A315" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B315" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C315" t="s">
+      <c r="C315" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D315" s="1" t="s">
+      <c r="D315" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A316" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B316" t="s">
+      <c r="A316" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B316" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C316" t="s">
+      <c r="C316" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D316" s="1" t="s">
+      <c r="D316" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A317" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B317" t="s">
+      <c r="A317" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B317" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C317" t="s">
+      <c r="C317" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D317" s="1" t="s">
+      <c r="D317" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A318" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B318" t="s">
+      <c r="A318" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B318" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C318" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D318" s="1" t="s">
+      <c r="D318" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A319" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B319" t="s">
+      <c r="A319" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B319" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C319" t="s">
+      <c r="C319" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D319" s="1" t="s">
+      <c r="D319" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A320" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B320" t="s">
+      <c r="A320" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B320" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C320" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D320" s="1" t="s">
+      <c r="D320" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A321" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B321" t="s">
+      <c r="A321" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B321" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C321" t="s">
+      <c r="C321" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D321" s="1" t="s">
+      <c r="D321" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A322" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B322" t="s">
+      <c r="A322" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B322" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C322" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D322" s="1" t="s">
+      <c r="D322" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A323" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B323" t="s">
+      <c r="A323" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B323" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C323" t="s">
+      <c r="C323" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D323" s="1" t="s">
+      <c r="D323" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A324" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B324" t="s">
+      <c r="A324" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B324" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C324" t="s">
+      <c r="C324" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D324" s="1" t="s">
+      <c r="D324" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A325" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B325" t="s">
+      <c r="A325" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B325" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C325" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D325" s="1" t="s">
+      <c r="D325" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A326" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B326" t="s">
+      <c r="A326" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B326" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C326" t="s">
+      <c r="C326" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D326" s="1" t="s">
+      <c r="D326" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A327" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B327" t="s">
+      <c r="A327" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B327" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C327" t="s">
+      <c r="C327" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D327" s="1" t="s">
+      <c r="D327" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A328" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B328" t="s">
+      <c r="A328" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B328" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C328" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D328" s="1" t="s">
+      <c r="D328" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A329" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B329" t="s">
+      <c r="A329" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B329" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C329" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D329" s="1" t="s">
+      <c r="D329" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A330" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B330" t="s">
+      <c r="A330" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B330" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C330" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D330" s="1" t="s">
+      <c r="D330" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A331" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B331" t="s">
+      <c r="A331" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B331" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C331" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D331" s="1" t="s">
+      <c r="D331" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A332" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B332" t="s">
+      <c r="A332" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B332" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C332" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D332" s="1" t="s">
+      <c r="D332" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A333" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B333" t="s">
+      <c r="A333" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B333" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C333" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D333" s="1" t="s">
+      <c r="D333" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A334" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B334" t="s">
+      <c r="A334" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B334" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C334" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D334" s="1" t="s">
+      <c r="D334" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A335" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B335" t="s">
+      <c r="A335" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B335" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C335" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D335" s="1" t="s">
+      <c r="D335" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A336" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B336" t="s">
+      <c r="A336" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B336" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C336" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D336" s="1" t="s">
+      <c r="D336" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A337" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B337" t="s">
+      <c r="A337" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B337" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C337" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D337" s="1" t="s">
+      <c r="D337" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A338" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B338" t="s">
+      <c r="A338" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B338" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C338" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D338" s="1" t="s">
+      <c r="D338" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A339" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B339" t="s">
+      <c r="A339" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B339" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C339" t="s">
+      <c r="C339" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D339" s="1" t="s">
+      <c r="D339" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A340" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B340" t="s">
+      <c r="A340" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B340" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C340" t="s">
+      <c r="C340" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D340" s="1" t="s">
+      <c r="D340" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A341" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B341" t="s">
+      <c r="A341" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B341" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C341" t="s">
+      <c r="C341" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D341" s="1" t="s">
+      <c r="D341" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A342" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B342" t="s">
+      <c r="A342" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B342" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C342" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D342" s="1" t="s">
+      <c r="D342" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A343" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B343" t="s">
+      <c r="A343" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B343" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C343" t="s">
+      <c r="C343" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D343" s="1" t="s">
+      <c r="D343" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A344" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B344" t="s">
+      <c r="A344" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B344" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C344" t="s">
+      <c r="C344" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D344" s="1" t="s">
+      <c r="D344" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A345" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B345" t="s">
+      <c r="A345" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B345" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C345" t="s">
+      <c r="C345" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D345" s="1" t="s">
+      <c r="D345" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A346" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B346" t="s">
+      <c r="A346" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B346" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C346" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D346" s="1" t="s">
+      <c r="D346" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A347" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B347" t="s">
+      <c r="A347" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B347" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C347" t="s">
+      <c r="C347" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D347" s="1" t="s">
+      <c r="D347" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A348" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B348" t="s">
+      <c r="A348" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B348" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C348" t="s">
+      <c r="C348" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D348" s="1" t="s">
+      <c r="D348" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A349" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B349" t="s">
+      <c r="A349" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B349" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C349" t="s">
+      <c r="C349" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D349" s="1" t="s">
+      <c r="D349" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A350" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B350" t="s">
+      <c r="A350" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B350" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C350" t="s">
+      <c r="C350" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D350" s="1" t="s">
+      <c r="D350" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A351" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B351" t="s">
+      <c r="A351" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B351" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C351" t="s">
+      <c r="C351" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D351" s="1" t="s">
+      <c r="D351" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A352" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B352" t="s">
+      <c r="A352" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B352" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C352" t="s">
+      <c r="C352" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D352" s="1" t="s">
+      <c r="D352" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A353" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B353" t="s">
+      <c r="A353" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B353" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C353" t="s">
+      <c r="C353" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D353" s="1" t="s">
+      <c r="D353" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A354" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B354" t="s">
+      <c r="A354" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B354" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C354" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D354" s="1" t="s">
+      <c r="D354" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A355" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B355" t="s">
+      <c r="A355" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B355" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C355" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D355" s="1" t="s">
+      <c r="D355" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A356" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B356" t="s">
+      <c r="A356" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B356" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C356" t="s">
+      <c r="C356" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D356" s="1" t="s">
+      <c r="D356" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A357" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B357" t="s">
+      <c r="A357" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B357" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C357" t="s">
+      <c r="C357" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D357" s="1" t="s">
+      <c r="D357" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A358" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B358" t="s">
+      <c r="A358" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B358" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C358" t="s">
+      <c r="C358" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D358" s="1" t="s">
+      <c r="D358" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A359" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B359" t="s">
+      <c r="A359" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B359" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C359" t="s">
+      <c r="C359" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D359" s="1" t="s">
+      <c r="D359" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A360" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B360" t="s">
+      <c r="A360" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B360" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C360" t="s">
+      <c r="C360" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D360" s="1" t="s">
+      <c r="D360" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A361" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B361" t="s">
+      <c r="A361" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B361" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C361" t="s">
+      <c r="C361" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D361" s="1" t="s">
+      <c r="D361" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A362" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B362" t="s">
+      <c r="A362" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B362" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C362" t="s">
+      <c r="C362" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D362" s="1" t="s">
+      <c r="D362" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A363" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B363" t="s">
+      <c r="A363" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B363" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C363" t="s">
+      <c r="C363" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D363" s="1" t="s">
+      <c r="D363" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A364" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B364" t="s">
+      <c r="A364" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B364" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C364" t="s">
+      <c r="C364" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D364" s="1" t="s">
+      <c r="D364" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A365" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B365" t="s">
+      <c r="A365" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B365" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C365" t="s">
+      <c r="C365" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D365" s="1" t="s">
+      <c r="D365" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A366" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B366" t="s">
+      <c r="A366" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B366" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C366" t="s">
+      <c r="C366" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D366" s="1" t="s">
+      <c r="D366" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A367" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B367" t="s">
+      <c r="A367" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B367" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C367" t="s">
+      <c r="C367" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D367" s="1" t="s">
+      <c r="D367" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A368" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B368" t="s">
+      <c r="A368" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B368" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C368" t="s">
+      <c r="C368" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D368" s="1" t="s">
+      <c r="D368" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A369" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B369" t="s">
+      <c r="A369" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B369" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C369" t="s">
+      <c r="C369" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D369" s="1" t="s">
+      <c r="D369" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A370" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B370" t="s">
+      <c r="A370" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B370" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C370" t="s">
+      <c r="C370" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D370" s="1" t="s">
+      <c r="D370" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A371" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B371" t="s">
+      <c r="A371" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B371" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C371" t="s">
+      <c r="C371" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D371" s="1" t="s">
+      <c r="D371" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A372" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B372" t="s">
+      <c r="A372" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B372" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C372" t="s">
+      <c r="C372" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D372" s="1" t="s">
+      <c r="D372" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A373" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B373" t="s">
+      <c r="A373" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B373" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C373" t="s">
+      <c r="C373" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D373" s="1" t="s">
+      <c r="D373" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A374" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B374" t="s">
+      <c r="A374" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B374" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C374" t="s">
+      <c r="C374" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D374" s="1" t="s">
+      <c r="D374" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A375" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B375" t="s">
+      <c r="A375" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B375" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C375" t="s">
+      <c r="C375" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D375" s="1" t="s">
+      <c r="D375" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A376" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B376" t="s">
+      <c r="A376" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B376" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C376" t="s">
+      <c r="C376" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D376" s="1" t="s">
+      <c r="D376" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A377" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B377" t="s">
+      <c r="A377" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B377" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C377" t="s">
+      <c r="C377" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D377" s="1" t="s">
+      <c r="D377" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A378" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B378" t="s">
+      <c r="A378" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B378" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C378" t="s">
+      <c r="C378" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D378" s="1" t="s">
+      <c r="D378" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A379" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B379" t="s">
+      <c r="A379" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B379" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C379" t="s">
+      <c r="C379" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D379" s="1" t="s">
+      <c r="D379" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A380" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B380" t="s">
+      <c r="A380" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B380" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C380" t="s">
+      <c r="C380" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D380" s="1" t="s">
+      <c r="D380" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A381" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B381" t="s">
+      <c r="A381" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B381" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C381" t="s">
+      <c r="C381" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D381" s="1" t="s">
+      <c r="D381" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A382" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B382" t="s">
+      <c r="A382" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B382" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C382" t="s">
+      <c r="C382" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D382" s="1" t="s">
+      <c r="D382" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A383" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B383" t="s">
+      <c r="A383" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B383" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C383" t="s">
+      <c r="C383" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D383" s="1" t="s">
+      <c r="D383" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A384" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B384" t="s">
+      <c r="A384" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B384" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C384" t="s">
+      <c r="C384" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D384" s="1" t="s">
+      <c r="D384" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A385" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B385" t="s">
+      <c r="A385" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B385" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C385" t="s">
+      <c r="C385" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D385" s="1" t="s">
+      <c r="D385" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A386" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B386" t="s">
+      <c r="A386" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B386" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C386" t="s">
+      <c r="C386" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D386" s="1" t="s">
+      <c r="D386" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A387" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B387" t="s">
+      <c r="A387" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B387" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C387" t="s">
+      <c r="C387" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D387" s="1" t="s">
+      <c r="D387" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A388" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B388" t="s">
+      <c r="A388" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B388" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C388" t="s">
+      <c r="C388" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D388" s="1" t="s">
+      <c r="D388" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A389" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B389" t="s">
+      <c r="A389" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B389" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C389" t="s">
+      <c r="C389" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D389" s="1" t="s">
+      <c r="D389" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A390" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B390" t="s">
+      <c r="A390" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B390" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C390" t="s">
+      <c r="C390" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D390" s="1" t="s">
+      <c r="D390" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A391" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B391" t="s">
+      <c r="A391" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B391" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C391" t="s">
+      <c r="C391" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D391" s="1" t="s">
+      <c r="D391" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A392" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B392" t="s">
+      <c r="A392" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B392" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C392" t="s">
+      <c r="C392" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D392" s="1" t="s">
+      <c r="D392" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A393" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B393" t="s">
+      <c r="A393" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B393" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C393" t="s">
+      <c r="C393" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D393" s="1" t="s">
+      <c r="D393" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A394" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B394" t="s">
+      <c r="A394" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B394" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C394" t="s">
+      <c r="C394" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D394" s="1" t="s">
+      <c r="D394" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A395" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B395" t="s">
+      <c r="A395" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B395" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C395" t="s">
+      <c r="C395" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D395" s="1" t="s">
+      <c r="D395" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A396" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B396" t="s">
+      <c r="A396" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B396" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C396" t="s">
+      <c r="C396" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D396" s="1" t="s">
+      <c r="D396" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A397" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B397" t="s">
+      <c r="A397" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B397" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C397" t="s">
+      <c r="C397" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D397" s="1" t="s">
+      <c r="D397" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A398" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B398" t="s">
+      <c r="A398" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B398" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C398" t="s">
+      <c r="C398" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D398" s="1" t="s">
+      <c r="D398" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A399" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B399" t="s">
+      <c r="A399" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B399" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C399" t="s">
+      <c r="C399" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D399" s="1" t="s">
+      <c r="D399" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A400" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B400" t="s">
+      <c r="A400" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B400" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C400" t="s">
+      <c r="C400" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D400" s="1" t="s">
+      <c r="D400" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A401" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B401" t="s">
+      <c r="A401" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B401" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C401" t="s">
+      <c r="C401" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D401" s="1" t="s">
+      <c r="D401" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A402" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B402" t="s">
+      <c r="A402" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B402" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C402" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D402" s="1" t="s">
+      <c r="D402" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A403" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B403" t="s">
+      <c r="A403" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B403" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C403" t="s">
+      <c r="C403" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D403" s="1" t="s">
+      <c r="D403" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A404" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B404" t="s">
+      <c r="A404" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B404" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C404" t="s">
+      <c r="C404" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D404" s="1" t="s">
+      <c r="D404" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A405" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B405" t="s">
+      <c r="A405" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B405" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C405" t="s">
+      <c r="C405" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D405" s="1" t="s">
+      <c r="D405" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A406" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B406" t="s">
+      <c r="A406" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B406" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C406" t="s">
+      <c r="C406" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D406" s="1" t="s">
+      <c r="D406" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A407" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B407" t="s">
+      <c r="A407" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B407" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C407" t="s">
+      <c r="C407" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D407" s="1" t="s">
+      <c r="D407" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A408" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B408" t="s">
+      <c r="A408" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B408" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C408" t="s">
+      <c r="C408" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D408" s="1" t="s">
+      <c r="D408" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A409" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B409" t="s">
+      <c r="A409" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B409" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C409" t="s">
+      <c r="C409" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D409" s="1" t="s">
+      <c r="D409" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A410" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B410" t="s">
+      <c r="A410" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B410" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C410" t="s">
+      <c r="C410" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D410" s="1" t="s">
+      <c r="D410" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A411" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B411" t="s">
+      <c r="A411" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B411" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C411" t="s">
+      <c r="C411" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D411" s="1" t="s">
+      <c r="D411" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A412" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B412" t="s">
+      <c r="A412" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B412" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C412" t="s">
+      <c r="C412" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D412" s="1" t="s">
+      <c r="D412" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A413" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B413" t="s">
+      <c r="A413" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B413" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C413" t="s">
+      <c r="C413" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D413" s="1" t="s">
+      <c r="D413" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A414" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B414" t="s">
+      <c r="A414" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B414" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C414" t="s">
+      <c r="C414" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D414" s="1" t="s">
+      <c r="D414" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A415" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B415" t="s">
+      <c r="A415" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B415" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C415" t="s">
+      <c r="C415" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D415" s="1" t="s">
+      <c r="D415" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A416" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B416" t="s">
+      <c r="A416" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B416" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C416" t="s">
+      <c r="C416" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D416" s="1" t="s">
+      <c r="D416" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A417" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B417" t="s">
+      <c r="A417" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B417" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C417" t="s">
+      <c r="C417" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D417" s="1" t="s">
+      <c r="D417" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A418" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B418" t="s">
+      <c r="A418" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B418" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C418" t="s">
+      <c r="C418" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D418" s="1" t="s">
+      <c r="D418" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A419" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B419" t="s">
+      <c r="A419" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B419" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C419" t="s">
+      <c r="C419" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D419" s="1" t="s">
+      <c r="D419" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A420" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B420" t="s">
+      <c r="A420" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B420" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C420" t="s">
+      <c r="C420" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D420" s="1" t="s">
+      <c r="D420" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A421" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B421" t="s">
+      <c r="A421" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B421" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C421" t="s">
+      <c r="C421" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D421" s="1" t="s">
+      <c r="D421" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A422" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B422" t="s">
+      <c r="A422" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B422" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C422" t="s">
+      <c r="C422" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D422" s="1" t="s">
+      <c r="D422" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A423" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B423" t="s">
+      <c r="A423" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B423" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C423" t="s">
+      <c r="C423" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D423" s="1" t="s">
+      <c r="D423" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A424" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B424" t="s">
+      <c r="A424" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B424" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C424" t="s">
+      <c r="C424" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D424" s="1" t="s">
+      <c r="D424" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A425" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B425" t="s">
+      <c r="A425" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B425" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C425" t="s">
+      <c r="C425" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D425" s="1" t="s">
+      <c r="D425" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A426" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B426" t="s">
+      <c r="A426" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B426" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C426" t="s">
+      <c r="C426" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D426" s="1" t="s">
+      <c r="D426" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A427" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B427" t="s">
+      <c r="A427" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B427" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C427" t="s">
+      <c r="C427" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D427" s="1" t="s">
+      <c r="D427" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A428" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B428" t="s">
+      <c r="A428" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B428" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C428" t="s">
+      <c r="C428" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D428" s="1" t="s">
+      <c r="D428" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A429" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B429" t="s">
+      <c r="A429" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B429" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C429" t="s">
+      <c r="C429" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D429" s="1" t="s">
+      <c r="D429" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A430" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B430" t="s">
+      <c r="A430" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B430" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C430" t="s">
+      <c r="C430" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D430" s="1" t="s">
+      <c r="D430" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A431" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B431" t="s">
+      <c r="A431" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B431" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C431" t="s">
+      <c r="C431" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D431" s="1" t="s">
+      <c r="D431" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A432" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B432" t="s">
+      <c r="A432" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B432" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C432" t="s">
+      <c r="C432" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D432" s="1" t="s">
+      <c r="D432" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A433" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B433" t="s">
+      <c r="A433" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B433" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C433" t="s">
+      <c r="C433" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D433" s="1" t="s">
+      <c r="D433" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A434" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B434" t="s">
+      <c r="A434" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B434" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C434" t="s">
+      <c r="C434" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D434" s="1" t="s">
+      <c r="D434" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A435" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B435" t="s">
+      <c r="A435" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B435" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C435" t="s">
+      <c r="C435" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D435" s="1" t="s">
+      <c r="D435" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A436" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B436" t="s">
+      <c r="A436" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B436" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C436" t="s">
+      <c r="C436" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D436" s="1" t="s">
+      <c r="D436" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A437" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B437" t="s">
+      <c r="A437" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B437" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C437" t="s">
+      <c r="C437" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D437" s="1" t="s">
+      <c r="D437" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A438" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B438" t="s">
+      <c r="A438" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B438" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C438" t="s">
+      <c r="C438" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D438" s="1" t="s">
+      <c r="D438" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A439" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B439" t="s">
+      <c r="A439" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B439" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C439" t="s">
+      <c r="C439" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D439" s="1" t="s">
+      <c r="D439" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A440" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B440" t="s">
+      <c r="A440" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B440" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C440" t="s">
+      <c r="C440" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D440" s="1" t="s">
+      <c r="D440" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A441" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B441" t="s">
+      <c r="A441" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B441" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C441" t="s">
+      <c r="C441" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D441" s="1" t="s">
+      <c r="D441" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A442" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B442" t="s">
+      <c r="A442" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B442" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C442" t="s">
+      <c r="C442" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D442" s="1" t="s">
+      <c r="D442" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A443" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B443" t="s">
+      <c r="A443" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B443" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C443" t="s">
+      <c r="C443" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D443" s="1" t="s">
+      <c r="D443" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A444" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B444" t="s">
+      <c r="A444" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B444" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C444" t="s">
+      <c r="C444" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D444" s="1" t="s">
+      <c r="D444" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A445" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B445" t="s">
+      <c r="A445" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B445" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C445" t="s">
+      <c r="C445" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D445" s="1" t="s">
+      <c r="D445" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A446" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B446" t="s">
+      <c r="A446" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B446" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C446" t="s">
+      <c r="C446" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D446" s="1" t="s">
+      <c r="D446" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A447" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B447" t="s">
+      <c r="A447" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B447" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C447" t="s">
+      <c r="C447" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D447" s="1" t="s">
+      <c r="D447" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A448" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B448" t="s">
+      <c r="A448" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B448" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C448" t="s">
+      <c r="C448" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D448" s="1" t="s">
+      <c r="D448" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A449" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B449" t="s">
+      <c r="A449" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B449" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C449" t="s">
+      <c r="C449" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D449" s="1" t="s">
+      <c r="D449" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A450" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B450" t="s">
+      <c r="A450" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B450" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C450" t="s">
+      <c r="C450" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D450" s="1" t="s">
+      <c r="D450" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A451" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B451" t="s">
+      <c r="A451" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B451" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C451" t="s">
+      <c r="C451" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D451" s="1" t="s">
+      <c r="D451" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C090E02-8AFB-4EA5-A652-4A961BC0AD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC9C33A-D6A8-4941-BA27-C383DE8090EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1782,10 +1782,10 @@
     <t>Validate OTP</t>
   </si>
   <si>
-    <t>ack-view-service-history</t>
-  </si>
-  <si>
     <t>Acknowledment view service history</t>
+  </si>
+  <si>
+    <t>service-history-type</t>
   </si>
 </sst>
 </file>
@@ -2169,7 +2169,7 @@
   <dimension ref="A1:D1697"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1688" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1698" sqref="C1698"/>
+      <selection activeCell="A1698" sqref="A1698"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25928,10 +25928,10 @@
         <v>4</v>
       </c>
       <c r="B1697" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1697" t="s">
         <v>584</v>
-      </c>
-      <c r="C1697" t="s">
-        <v>585</v>
       </c>
       <c r="D1697" s="1" t="s">
         <v>7</v>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC9C33A-D6A8-4941-BA27-C383DE8090EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369EC8B5-DCA0-4D24-8214-41A854A975F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD9B09C-C2D1-4DD9-AA83-8FABE75F73D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D64B20-CC5D-4365-88B7-7DAF28EC80EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6800" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6812" uniqueCount="598">
   <si>
     <t>lang_code</t>
   </si>
@@ -1804,6 +1804,24 @@
   </si>
   <si>
     <t>Acknowledment Get My Id</t>
+  </si>
+  <si>
+    <t>vid-card-download-positive-purpose</t>
+  </si>
+  <si>
+    <t>vid-card-download-failure-purpose</t>
+  </si>
+  <si>
+    <t>vid-card-download-positive-summary</t>
+  </si>
+  <si>
+    <t>Vid Card Download Positive Purpose</t>
+  </si>
+  <si>
+    <t>Vid Card Download Failure Purpose</t>
+  </si>
+  <si>
+    <t>Vid Card Download Positive Summary</t>
   </si>
 </sst>
 </file>
@@ -2193,10 +2211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1700"/>
+  <dimension ref="A1:D1703"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1688" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1702" sqref="B1702"/>
+      <selection activeCell="B1703" sqref="B1703"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
@@ -26006,6 +26024,48 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1701" spans="1:4">
+      <c r="A1701" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>592</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>595</v>
+      </c>
+      <c r="D1701" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:4">
+      <c r="A1702" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>593</v>
+      </c>
+      <c r="C1702" t="s">
+        <v>596</v>
+      </c>
+      <c r="D1702" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:4">
+      <c r="A1703" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>594</v>
+      </c>
+      <c r="C1703" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1703" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D400" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D64B20-CC5D-4365-88B7-7DAF28EC80EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ABF47C-ED22-434A-9978-DA641204EF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1809,9 +1809,6 @@
     <t>vid-card-download-positive-purpose</t>
   </si>
   <si>
-    <t>vid-card-download-failure-purpose</t>
-  </si>
-  <si>
     <t>vid-card-download-positive-summary</t>
   </si>
   <si>
@@ -1822,6 +1819,9 @@
   </si>
   <si>
     <t>Vid Card Download Positive Summary</t>
+  </si>
+  <si>
+    <t>vid-card-download-negative-purpose</t>
   </si>
 </sst>
 </file>
@@ -26032,7 +26032,7 @@
         <v>592</v>
       </c>
       <c r="C1701" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D1701" s="1" t="s">
         <v>7</v>
@@ -26043,10 +26043,10 @@
         <v>4</v>
       </c>
       <c r="B1702" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C1702" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D1702" s="1" t="s">
         <v>7</v>
@@ -26057,10 +26057,10 @@
         <v>4</v>
       </c>
       <c r="B1703" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C1703" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D1703" s="1" t="s">
         <v>7</v>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ABF47C-ED22-434A-9978-DA641204EF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337574ED-1CFC-4A0F-8051-07E976BC82F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6812" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6860" uniqueCount="622">
   <si>
     <t>lang_code</t>
   </si>
@@ -1822,13 +1822,85 @@
   </si>
   <si>
     <t>vid-card-download-negative-purpose</t>
+  </si>
+  <si>
+    <t>mosip.idp.otp.template.property</t>
+  </si>
+  <si>
+    <t>OTP</t>
+  </si>
+  <si>
+    <t>mosip.idp.biometrics.template.property</t>
+  </si>
+  <si>
+    <t>Biometrics</t>
+  </si>
+  <si>
+    <t>mosip.idp.unknown.authentication.template.property</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>mosip.full.name.template.property</t>
+  </si>
+  <si>
+    <t>mosip.date.of.birth.template.property</t>
+  </si>
+  <si>
+    <t>mosip.uin.template.property</t>
+  </si>
+  <si>
+    <t>mosip.perpetual.vid.template.property</t>
+  </si>
+  <si>
+    <t>mosip.phone.template.property</t>
+  </si>
+  <si>
+    <t>mosip.email.template.property</t>
+  </si>
+  <si>
+    <t>mosip.address.template.property</t>
+  </si>
+  <si>
+    <t>mosip.gender.template.property</t>
+  </si>
+  <si>
+    <t>mosip.defualt.template.property</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Date Of Birth</t>
+  </si>
+  <si>
+    <t>UIN</t>
+  </si>
+  <si>
+    <t>Perpetual VID</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Defualt</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1851,6 +1923,12 @@
     <font>
       <sz val="9.8000000000000007"/>
       <color rgb="FF067D17"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
@@ -1890,7 +1968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1901,6 +1979,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2211,10 +2292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1703"/>
+  <dimension ref="A1:D1715"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1688" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1703" sqref="B1703"/>
+    <sheetView tabSelected="1" topLeftCell="A1700" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1716" sqref="C1716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
@@ -26066,6 +26147,174 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1704" spans="1:4">
+      <c r="A1704" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1704" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C1704" t="s">
+        <v>599</v>
+      </c>
+      <c r="D1704" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:4">
+      <c r="A1705" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1705" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>601</v>
+      </c>
+      <c r="D1705" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:4">
+      <c r="A1706" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1706" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="C1706" t="s">
+        <v>603</v>
+      </c>
+      <c r="D1706" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:4">
+      <c r="A1707" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>604</v>
+      </c>
+      <c r="C1707" t="s">
+        <v>613</v>
+      </c>
+      <c r="D1707" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:4">
+      <c r="A1708" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>605</v>
+      </c>
+      <c r="C1708" t="s">
+        <v>614</v>
+      </c>
+      <c r="D1708" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:4">
+      <c r="A1709" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1709" t="s">
+        <v>606</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>615</v>
+      </c>
+      <c r="D1709" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:4">
+      <c r="A1710" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1710" t="s">
+        <v>607</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>616</v>
+      </c>
+      <c r="D1710" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:4">
+      <c r="A1711" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>608</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1711" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:4">
+      <c r="A1712" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1712" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1712" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:4">
+      <c r="A1713" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>610</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>618</v>
+      </c>
+      <c r="D1713" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:4">
+      <c r="A1714" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>611</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>619</v>
+      </c>
+      <c r="D1714" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:4">
+      <c r="A1715" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>620</v>
+      </c>
+      <c r="D1715" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D400" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337574ED-1CFC-4A0F-8051-07E976BC82F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835B11E7-AB0A-4B9E-A2E3-D002FA2F9120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6860" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6864" uniqueCount="624">
   <si>
     <t>lang_code</t>
   </si>
@@ -1894,6 +1894,12 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>vid-card-type</t>
+  </si>
+  <si>
+    <t>Vid Card Type</t>
   </si>
 </sst>
 </file>
@@ -2292,10 +2298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1715"/>
+  <dimension ref="A1:D1716"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1700" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1716" sqref="C1716"/>
+    <sheetView tabSelected="1" topLeftCell="A1706" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1716" sqref="B1716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
@@ -26315,6 +26321,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1716" spans="1:4">
+      <c r="A1716" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>622</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1716" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D400" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\mosipProject\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835B11E7-AB0A-4B9E-A2E3-D002FA2F9120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0B56CD-AB7B-4BD9-A295-CFCA527DC959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6864" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6900" uniqueCount="642">
   <si>
     <t>lang_code</t>
   </si>
@@ -1900,6 +1900,60 @@
   </si>
   <si>
     <t>Vid Card Type</t>
+  </si>
+  <si>
+    <t>vid-card-download-request-received-email-subject</t>
+  </si>
+  <si>
+    <t>Request received email subject to download my VID card</t>
+  </si>
+  <si>
+    <t>vid-card-download-success-email-subject</t>
+  </si>
+  <si>
+    <t>Success email subject to download my VID card</t>
+  </si>
+  <si>
+    <t>vid-card-download-failure-email-subject</t>
+  </si>
+  <si>
+    <t>Failure email subject to download my VID card</t>
+  </si>
+  <si>
+    <t>vid-card-download-request-received-email-content</t>
+  </si>
+  <si>
+    <t>Request received email to download my VID card</t>
+  </si>
+  <si>
+    <t>vid-card-download-success-email-content</t>
+  </si>
+  <si>
+    <t>Success email to download my VID card</t>
+  </si>
+  <si>
+    <t>vid-card-download-failure-email-content</t>
+  </si>
+  <si>
+    <t>Failure email to download my VID card</t>
+  </si>
+  <si>
+    <t>vid-card-download-request-received_SMS</t>
+  </si>
+  <si>
+    <t>Request received sms to download my VID card</t>
+  </si>
+  <si>
+    <t>vid-card-download-success_SMS</t>
+  </si>
+  <si>
+    <t>Success sms to download my VID card</t>
+  </si>
+  <si>
+    <t>vid-card-download-failure_SMS</t>
+  </si>
+  <si>
+    <t>Failure sms to download my VID card</t>
   </si>
 </sst>
 </file>
@@ -2298,17 +2352,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1716"/>
+  <dimension ref="A1:D1725"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1706" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1716" sqref="B1716"/>
+    <sheetView tabSelected="1" topLeftCell="A1712" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1716" sqref="C1716"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="37.54296875" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" style="1"/>
+    <col min="4" max="4" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -26332,6 +26386,132 @@
         <v>623</v>
       </c>
       <c r="D1716" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:4">
+      <c r="A1717" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1717" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:4">
+      <c r="A1718" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>626</v>
+      </c>
+      <c r="C1718" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1718" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:4">
+      <c r="A1719" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1719" t="s">
+        <v>628</v>
+      </c>
+      <c r="C1719" t="s">
+        <v>629</v>
+      </c>
+      <c r="D1719" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:4">
+      <c r="A1720" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>630</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>631</v>
+      </c>
+      <c r="D1720" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:4">
+      <c r="A1721" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>632</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>633</v>
+      </c>
+      <c r="D1721" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:4">
+      <c r="A1722" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1722" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:4">
+      <c r="A1723" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>636</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>637</v>
+      </c>
+      <c r="D1723" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:4">
+      <c r="A1724" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>638</v>
+      </c>
+      <c r="C1724" t="s">
+        <v>639</v>
+      </c>
+      <c r="D1724" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:4">
+      <c r="A1725" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>640</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>641</v>
+      </c>
+      <c r="D1725" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35702D44-441F-4065-9FC9-1FCAC9389F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22719CDE-D2F5-4074-AA02-3F1151F68632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9604" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9628" uniqueCount="741">
   <si>
     <t>lang_code</t>
   </si>
@@ -2228,6 +2228,24 @@
   </si>
   <si>
     <t>Revoked</t>
+  </si>
+  <si>
+    <t>update-demo-data-regproc-success-email-subject</t>
+  </si>
+  <si>
+    <t>update-demo-data-regproc-success-email-content</t>
+  </si>
+  <si>
+    <t>update-demo-data-regproc-failure-email-subject</t>
+  </si>
+  <si>
+    <t>update-demo-data-regproc-failure-email-content</t>
+  </si>
+  <si>
+    <t>update-demo-data-regproc-success_SMS</t>
+  </si>
+  <si>
+    <t>update-demo-data-regproc-failure_SMS</t>
   </si>
 </sst>
 </file>
@@ -2634,17 +2652,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2401"/>
+  <dimension ref="A1:D2407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2386" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2402" sqref="A2402"/>
+    <sheetView tabSelected="1" topLeftCell="A2395" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2407" sqref="C2407"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.54296875" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="1"/>
+    <col min="4" max="4" width="8.453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -36261,6 +36279,90 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2402" spans="1:4">
+      <c r="A2402" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2402" t="s">
+        <v>735</v>
+      </c>
+      <c r="C2402" t="s">
+        <v>547</v>
+      </c>
+      <c r="D2402" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:4">
+      <c r="A2403" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2403" t="s">
+        <v>736</v>
+      </c>
+      <c r="C2403" t="s">
+        <v>550</v>
+      </c>
+      <c r="D2403" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:4">
+      <c r="A2404" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2404" t="s">
+        <v>737</v>
+      </c>
+      <c r="C2404" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2404" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:4">
+      <c r="A2405" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2405" t="s">
+        <v>738</v>
+      </c>
+      <c r="C2405" t="s">
+        <v>551</v>
+      </c>
+      <c r="D2405" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:4">
+      <c r="A2406" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2406" t="s">
+        <v>739</v>
+      </c>
+      <c r="C2406" t="s">
+        <v>583</v>
+      </c>
+      <c r="D2406" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:4">
+      <c r="A2407" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2407" t="s">
+        <v>740</v>
+      </c>
+      <c r="C2407" t="s">
+        <v>584</v>
+      </c>
+      <c r="D2407" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22719CDE-D2F5-4074-AA02-3F1151F68632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C7BC4D-4F41-4542-94FF-9D22939292DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$931</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9628" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9652" uniqueCount="741">
   <si>
     <t>lang_code</t>
   </si>
@@ -2652,10 +2663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2407"/>
+  <dimension ref="A1:D2413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2395" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2407" sqref="C2407"/>
+    <sheetView tabSelected="1" topLeftCell="A2399" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2414" sqref="C2414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
@@ -36295,13 +36306,13 @@
     </row>
     <row r="2403" spans="1:4">
       <c r="A2403" t="s">
-        <v>4</v>
+        <v>314</v>
       </c>
       <c r="B2403" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C2403" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D2403" s="1" t="s">
         <v>7</v>
@@ -36309,13 +36320,13 @@
     </row>
     <row r="2404" spans="1:4">
       <c r="A2404" t="s">
-        <v>4</v>
+        <v>301</v>
       </c>
       <c r="B2404" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C2404" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D2404" s="1" t="s">
         <v>7</v>
@@ -36323,13 +36334,13 @@
     </row>
     <row r="2405" spans="1:4">
       <c r="A2405" t="s">
-        <v>4</v>
+        <v>303</v>
       </c>
       <c r="B2405" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C2405" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D2405" s="1" t="s">
         <v>7</v>
@@ -36337,13 +36348,13 @@
     </row>
     <row r="2406" spans="1:4">
       <c r="A2406" t="s">
-        <v>4</v>
+        <v>302</v>
       </c>
       <c r="B2406" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C2406" t="s">
-        <v>583</v>
+        <v>547</v>
       </c>
       <c r="D2406" s="1" t="s">
         <v>7</v>
@@ -36351,15 +36362,99 @@
     </row>
     <row r="2407" spans="1:4">
       <c r="A2407" t="s">
-        <v>4</v>
+        <v>293</v>
       </c>
       <c r="B2407" t="s">
+        <v>735</v>
+      </c>
+      <c r="C2407" t="s">
+        <v>547</v>
+      </c>
+      <c r="D2407" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:4">
+      <c r="A2408" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2408" t="s">
+        <v>735</v>
+      </c>
+      <c r="C2408" t="s">
+        <v>547</v>
+      </c>
+      <c r="D2408" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:4">
+      <c r="A2409" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2409" t="s">
+        <v>736</v>
+      </c>
+      <c r="C2409" t="s">
+        <v>550</v>
+      </c>
+      <c r="D2409" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:4">
+      <c r="A2410" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2410" t="s">
+        <v>737</v>
+      </c>
+      <c r="C2410" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2410" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:4">
+      <c r="A2411" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2411" t="s">
+        <v>738</v>
+      </c>
+      <c r="C2411" t="s">
+        <v>551</v>
+      </c>
+      <c r="D2411" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:4">
+      <c r="A2412" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2412" t="s">
+        <v>739</v>
+      </c>
+      <c r="C2412" t="s">
+        <v>583</v>
+      </c>
+      <c r="D2412" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:4">
+      <c r="A2413" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2413" t="s">
         <v>740</v>
       </c>
-      <c r="C2407" t="s">
+      <c r="C2413" t="s">
         <v>584</v>
       </c>
-      <c r="D2407" s="1" t="s">
+      <c r="D2413" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C7BC4D-4F41-4542-94FF-9D22939292DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB377E25-DCD2-4111-BBAB-117A8757C0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9652" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9676" uniqueCount="741">
   <si>
     <t>lang_code</t>
   </si>
@@ -2663,10 +2663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2413"/>
+  <dimension ref="A1:D2419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2399" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2414" sqref="C2414"/>
+    <sheetView tabSelected="1" topLeftCell="A2402" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2414" sqref="A2414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
@@ -36458,6 +36458,90 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2414" spans="1:4">
+      <c r="A2414" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2414" t="s">
+        <v>736</v>
+      </c>
+      <c r="C2414" t="s">
+        <v>550</v>
+      </c>
+      <c r="D2414" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:4">
+      <c r="A2415" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2415" t="s">
+        <v>736</v>
+      </c>
+      <c r="C2415" t="s">
+        <v>550</v>
+      </c>
+      <c r="D2415" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:4">
+      <c r="A2416" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2416" t="s">
+        <v>736</v>
+      </c>
+      <c r="C2416" t="s">
+        <v>550</v>
+      </c>
+      <c r="D2416" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:4">
+      <c r="A2417" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2417" t="s">
+        <v>736</v>
+      </c>
+      <c r="C2417" t="s">
+        <v>550</v>
+      </c>
+      <c r="D2417" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:4">
+      <c r="A2418" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2418" t="s">
+        <v>736</v>
+      </c>
+      <c r="C2418" t="s">
+        <v>550</v>
+      </c>
+      <c r="D2418" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:4">
+      <c r="A2419" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2419" t="s">
+        <v>736</v>
+      </c>
+      <c r="C2419" t="s">
+        <v>550</v>
+      </c>
+      <c r="D2419" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB377E25-DCD2-4111-BBAB-117A8757C0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE12F88-A6BF-490C-A27D-08BF2468D7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9676" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9700" uniqueCount="741">
   <si>
     <t>lang_code</t>
   </si>
@@ -2663,10 +2663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2419"/>
+  <dimension ref="A1:D2425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2402" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2414" sqref="A2414"/>
+    <sheetView tabSelected="1" topLeftCell="A2411" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2420" sqref="B2420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
@@ -36542,6 +36542,90 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2420" spans="1:4">
+      <c r="A2420" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2420" t="s">
+        <v>737</v>
+      </c>
+      <c r="C2420" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2420" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:4">
+      <c r="A2421" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2421" t="s">
+        <v>737</v>
+      </c>
+      <c r="C2421" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2421" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:4">
+      <c r="A2422" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2422" t="s">
+        <v>737</v>
+      </c>
+      <c r="C2422" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2422" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:4">
+      <c r="A2423" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2423" t="s">
+        <v>737</v>
+      </c>
+      <c r="C2423" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2423" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:4">
+      <c r="A2424" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2424" t="s">
+        <v>737</v>
+      </c>
+      <c r="C2424" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2424" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:4">
+      <c r="A2425" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2425" t="s">
+        <v>737</v>
+      </c>
+      <c r="C2425" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2425" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE12F88-A6BF-490C-A27D-08BF2468D7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0974F11B-E2AA-41D4-ACF6-CEB71D8D84AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9700" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9772" uniqueCount="741">
   <si>
     <t>lang_code</t>
   </si>
@@ -2663,10 +2663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2425"/>
+  <dimension ref="A1:D2443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2411" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2420" sqref="B2420"/>
+    <sheetView tabSelected="1" topLeftCell="A2432" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2441" sqref="B2441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
@@ -36626,6 +36626,258 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2426" spans="1:4">
+      <c r="A2426" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2426" t="s">
+        <v>738</v>
+      </c>
+      <c r="C2426" t="s">
+        <v>551</v>
+      </c>
+      <c r="D2426" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:4">
+      <c r="A2427" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2427" t="s">
+        <v>738</v>
+      </c>
+      <c r="C2427" t="s">
+        <v>551</v>
+      </c>
+      <c r="D2427" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:4">
+      <c r="A2428" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2428" t="s">
+        <v>738</v>
+      </c>
+      <c r="C2428" t="s">
+        <v>551</v>
+      </c>
+      <c r="D2428" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:4">
+      <c r="A2429" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2429" t="s">
+        <v>738</v>
+      </c>
+      <c r="C2429" t="s">
+        <v>551</v>
+      </c>
+      <c r="D2429" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:4">
+      <c r="A2430" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2430" t="s">
+        <v>738</v>
+      </c>
+      <c r="C2430" t="s">
+        <v>551</v>
+      </c>
+      <c r="D2430" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:4">
+      <c r="A2431" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2431" t="s">
+        <v>738</v>
+      </c>
+      <c r="C2431" t="s">
+        <v>551</v>
+      </c>
+      <c r="D2431" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:4">
+      <c r="A2432" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2432" t="s">
+        <v>739</v>
+      </c>
+      <c r="C2432" t="s">
+        <v>583</v>
+      </c>
+      <c r="D2432" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:4">
+      <c r="A2433" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2433" t="s">
+        <v>739</v>
+      </c>
+      <c r="C2433" t="s">
+        <v>583</v>
+      </c>
+      <c r="D2433" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:4">
+      <c r="A2434" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2434" t="s">
+        <v>739</v>
+      </c>
+      <c r="C2434" t="s">
+        <v>583</v>
+      </c>
+      <c r="D2434" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:4">
+      <c r="A2435" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2435" t="s">
+        <v>739</v>
+      </c>
+      <c r="C2435" t="s">
+        <v>583</v>
+      </c>
+      <c r="D2435" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:4">
+      <c r="A2436" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2436" t="s">
+        <v>739</v>
+      </c>
+      <c r="C2436" t="s">
+        <v>583</v>
+      </c>
+      <c r="D2436" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:4">
+      <c r="A2437" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2437" t="s">
+        <v>739</v>
+      </c>
+      <c r="C2437" t="s">
+        <v>583</v>
+      </c>
+      <c r="D2437" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:4">
+      <c r="A2438" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2438" t="s">
+        <v>740</v>
+      </c>
+      <c r="C2438" t="s">
+        <v>584</v>
+      </c>
+      <c r="D2438" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:4">
+      <c r="A2439" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2439" t="s">
+        <v>740</v>
+      </c>
+      <c r="C2439" t="s">
+        <v>584</v>
+      </c>
+      <c r="D2439" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:4">
+      <c r="A2440" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2440" t="s">
+        <v>740</v>
+      </c>
+      <c r="C2440" t="s">
+        <v>584</v>
+      </c>
+      <c r="D2440" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:4">
+      <c r="A2441" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2441" t="s">
+        <v>740</v>
+      </c>
+      <c r="C2441" t="s">
+        <v>584</v>
+      </c>
+      <c r="D2441" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:4">
+      <c r="A2442" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2442" t="s">
+        <v>740</v>
+      </c>
+      <c r="C2442" t="s">
+        <v>584</v>
+      </c>
+      <c r="D2442" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:4">
+      <c r="A2443" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2443" t="s">
+        <v>740</v>
+      </c>
+      <c r="C2443" t="s">
+        <v>584</v>
+      </c>
+      <c r="D2443" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0974F11B-E2AA-41D4-ACF6-CEB71D8D84AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170CF29A-70C3-4C55-8016-B5D230BEF04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9772" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9784" uniqueCount="747">
   <si>
     <t>lang_code</t>
   </si>
@@ -2257,6 +2257,24 @@
   </si>
   <si>
     <t>update-demo-data-regproc-failure_SMS</t>
+  </si>
+  <si>
+    <t>update-demo-data-discarded-email-subject</t>
+  </si>
+  <si>
+    <t>update-demo-data-discarded-email-content</t>
+  </si>
+  <si>
+    <t>update-demo-data-discarded-SMS</t>
+  </si>
+  <si>
+    <t>Failure email subject to Discard draft</t>
+  </si>
+  <si>
+    <t>Failure email content to Discard draft</t>
+  </si>
+  <si>
+    <t>Failure SMS content to discard draft</t>
   </si>
 </sst>
 </file>
@@ -2663,10 +2681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2443"/>
+  <dimension ref="A1:D2446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2432" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2441" sqref="B2441"/>
+    <sheetView tabSelected="1" topLeftCell="A2438" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2444" sqref="B2444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
@@ -36878,6 +36896,48 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2444" spans="1:4">
+      <c r="A2444" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2444" t="s">
+        <v>741</v>
+      </c>
+      <c r="C2444" t="s">
+        <v>744</v>
+      </c>
+      <c r="D2444" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:4">
+      <c r="A2445" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2445" t="s">
+        <v>742</v>
+      </c>
+      <c r="C2445" t="s">
+        <v>745</v>
+      </c>
+      <c r="D2445" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:4">
+      <c r="A2446" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2446" t="s">
+        <v>743</v>
+      </c>
+      <c r="C2446" t="s">
+        <v>746</v>
+      </c>
+      <c r="D2446" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170CF29A-70C3-4C55-8016-B5D230BEF04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33CE4B4-76A9-4625-AC99-2506C65D9007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9784" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9856" uniqueCount="747">
   <si>
     <t>lang_code</t>
   </si>
@@ -2681,10 +2681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2446"/>
+  <dimension ref="A1:D2464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2438" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2444" sqref="B2444"/>
+    <sheetView tabSelected="1" topLeftCell="A2450" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2462" sqref="C2462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
@@ -36938,6 +36938,258 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2447" spans="1:4">
+      <c r="A2447" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2447" t="s">
+        <v>741</v>
+      </c>
+      <c r="C2447" t="s">
+        <v>744</v>
+      </c>
+      <c r="D2447" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:4">
+      <c r="A2448" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2448" t="s">
+        <v>741</v>
+      </c>
+      <c r="C2448" t="s">
+        <v>744</v>
+      </c>
+      <c r="D2448" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:4">
+      <c r="A2449" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2449" t="s">
+        <v>741</v>
+      </c>
+      <c r="C2449" t="s">
+        <v>744</v>
+      </c>
+      <c r="D2449" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:4">
+      <c r="A2450" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2450" t="s">
+        <v>741</v>
+      </c>
+      <c r="C2450" t="s">
+        <v>744</v>
+      </c>
+      <c r="D2450" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:4">
+      <c r="A2451" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2451" t="s">
+        <v>741</v>
+      </c>
+      <c r="C2451" t="s">
+        <v>744</v>
+      </c>
+      <c r="D2451" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:4">
+      <c r="A2452" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2452" t="s">
+        <v>741</v>
+      </c>
+      <c r="C2452" t="s">
+        <v>744</v>
+      </c>
+      <c r="D2452" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:4">
+      <c r="A2453" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2453" t="s">
+        <v>742</v>
+      </c>
+      <c r="C2453" t="s">
+        <v>745</v>
+      </c>
+      <c r="D2453" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:4">
+      <c r="A2454" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2454" t="s">
+        <v>742</v>
+      </c>
+      <c r="C2454" t="s">
+        <v>745</v>
+      </c>
+      <c r="D2454" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:4">
+      <c r="A2455" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2455" t="s">
+        <v>742</v>
+      </c>
+      <c r="C2455" t="s">
+        <v>745</v>
+      </c>
+      <c r="D2455" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:4">
+      <c r="A2456" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2456" t="s">
+        <v>742</v>
+      </c>
+      <c r="C2456" t="s">
+        <v>745</v>
+      </c>
+      <c r="D2456" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:4">
+      <c r="A2457" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2457" t="s">
+        <v>742</v>
+      </c>
+      <c r="C2457" t="s">
+        <v>745</v>
+      </c>
+      <c r="D2457" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:4">
+      <c r="A2458" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2458" t="s">
+        <v>742</v>
+      </c>
+      <c r="C2458" t="s">
+        <v>745</v>
+      </c>
+      <c r="D2458" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:4">
+      <c r="A2459" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2459" t="s">
+        <v>743</v>
+      </c>
+      <c r="C2459" t="s">
+        <v>746</v>
+      </c>
+      <c r="D2459" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:4">
+      <c r="A2460" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2460" t="s">
+        <v>743</v>
+      </c>
+      <c r="C2460" t="s">
+        <v>746</v>
+      </c>
+      <c r="D2460" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:4">
+      <c r="A2461" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2461" t="s">
+        <v>743</v>
+      </c>
+      <c r="C2461" t="s">
+        <v>746</v>
+      </c>
+      <c r="D2461" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:4">
+      <c r="A2462" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2462" t="s">
+        <v>743</v>
+      </c>
+      <c r="C2462" t="s">
+        <v>746</v>
+      </c>
+      <c r="D2462" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:4">
+      <c r="A2463" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2463" t="s">
+        <v>743</v>
+      </c>
+      <c r="C2463" t="s">
+        <v>746</v>
+      </c>
+      <c r="D2463" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:4">
+      <c r="A2464" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2464" t="s">
+        <v>743</v>
+      </c>
+      <c r="C2464" t="s">
+        <v>746</v>
+      </c>
+      <c r="D2464" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33CE4B4-76A9-4625-AC99-2506C65D9007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E2D90B-F132-4429-A7C5-F1C70DFA0757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9856" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9868" uniqueCount="753">
   <si>
     <t>lang_code</t>
   </si>
@@ -2275,13 +2275,31 @@
   </si>
   <si>
     <t>Failure SMS content to discard draft</t>
+  </si>
+  <si>
+    <t>mosip.event.status.cancelled.template</t>
+  </si>
+  <si>
+    <t>Cancelled event status</t>
+  </si>
+  <si>
+    <t>update-demo-data-cancelled-summary</t>
+  </si>
+  <si>
+    <t>Cancelled summary to self update demographic data</t>
+  </si>
+  <si>
+    <t>update-demo-data-cancelled-purpose</t>
+  </si>
+  <si>
+    <t>Cancelled Purpose to self update demographic data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2317,6 +2335,12 @@
       <sz val="10"/>
       <color rgb="FF067D17"/>
       <name val="&quot;JetBrains Mono&quot;"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2356,7 +2380,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2369,6 +2393,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2681,10 +2708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2464"/>
+  <dimension ref="A1:D2467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2450" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2462" sqref="C2462"/>
+    <sheetView tabSelected="1" topLeftCell="A2461" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2467" sqref="B2467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
@@ -17426,7 +17453,7 @@
       <c r="A1053" t="s">
         <v>4</v>
       </c>
-      <c r="B1053" s="4" t="s">
+      <c r="B1053" s="6" t="s">
         <v>436</v>
       </c>
       <c r="C1053" s="4" t="s">
@@ -37187,6 +37214,48 @@
         <v>746</v>
       </c>
       <c r="D2464" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:4">
+      <c r="A2465" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2465" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="C2465" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="D2465" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:4">
+      <c r="A2466" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2466" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2466" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="D2466" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:4">
+      <c r="A2467" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2467" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C2467" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="D2467" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E2D90B-F132-4429-A7C5-F1C70DFA0757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A99562-BA93-4A94-AB19-ED912C85305D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9868" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9940" uniqueCount="753">
   <si>
     <t>lang_code</t>
   </si>
@@ -2708,10 +2708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2467"/>
+  <dimension ref="A1:D2485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2461" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2467" sqref="B2467"/>
+    <sheetView tabSelected="1" topLeftCell="A2470" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2485" sqref="D2485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
@@ -37259,6 +37259,258 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2468" spans="1:4">
+      <c r="A2468" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2468" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="C2468" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="D2468" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:4">
+      <c r="A2469" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2469" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="C2469" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="D2469" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:4">
+      <c r="A2470" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2470" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="C2470" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="D2470" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:4">
+      <c r="A2471" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2471" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="C2471" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="D2471" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:4">
+      <c r="A2472" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2472" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="C2472" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="D2472" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:4">
+      <c r="A2473" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2473" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="C2473" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="D2473" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:4">
+      <c r="A2474" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2474" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2474" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="D2474" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:4">
+      <c r="A2475" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2475" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2475" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="D2475" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:4">
+      <c r="A2476" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2476" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2476" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="D2476" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:4">
+      <c r="A2477" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2477" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2477" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="D2477" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:4">
+      <c r="A2478" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2478" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2478" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="D2478" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:4">
+      <c r="A2479" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2479" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2479" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="D2479" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:4">
+      <c r="A2480" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2480" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C2480" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="D2480" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:4">
+      <c r="A2481" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2481" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C2481" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="D2481" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:4">
+      <c r="A2482" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2482" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C2482" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="D2482" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:4">
+      <c r="A2483" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2483" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C2483" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="D2483" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:4">
+      <c r="A2484" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2484" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C2484" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="D2484" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:4">
+      <c r="A2485" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2485" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C2485" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="D2485" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A99562-BA93-4A94-AB19-ED912C85305D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CD960A-4691-46E8-8E0B-90712386D159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9940" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9968" uniqueCount="755">
   <si>
     <t>lang_code</t>
   </si>
@@ -2293,13 +2293,19 @@
   </si>
   <si>
     <t>Cancelled Purpose to self update demographic data</t>
+  </si>
+  <si>
+    <t>update-demo-data-regproc-success-summary</t>
+  </si>
+  <si>
+    <t>Regproc success summary to self update demographic data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2342,6 +2348,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2380,7 +2392,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2397,6 +2409,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2708,10 +2723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2485"/>
+  <dimension ref="A1:D2492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2470" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2485" sqref="D2485"/>
+    <sheetView tabSelected="1" topLeftCell="A2478" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2486" sqref="A2486:A2492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
@@ -37511,6 +37526,104 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2486" spans="1:4">
+      <c r="A2486" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2486" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="C2486" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="D2486" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:4">
+      <c r="A2487" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2487" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="C2487" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="D2487" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:4">
+      <c r="A2488" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2488" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="C2488" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="D2488" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:4">
+      <c r="A2489" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2489" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="C2489" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="D2489" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:4">
+      <c r="A2490" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2490" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="C2490" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="D2490" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:4">
+      <c r="A2491" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2491" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="C2491" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="D2491" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:4">
+      <c r="A2492" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2492" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="C2492" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="D2492" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CD960A-4691-46E8-8E0B-90712386D159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4134A0-B6AA-4FD1-953D-5327C209696F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9968" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9996" uniqueCount="756">
   <si>
     <t>lang_code</t>
   </si>
@@ -2299,6 +2299,9 @@
   </si>
   <si>
     <t>Regproc success summary to self update demographic data</t>
+  </si>
+  <si>
+    <t>update-demo-data-regproc-success-purpose</t>
   </si>
 </sst>
 </file>
@@ -2723,10 +2726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2492"/>
+  <dimension ref="A1:D2499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2478" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2486" sqref="A2486:A2492"/>
+    <sheetView tabSelected="1" topLeftCell="A2487" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2493" sqref="B2493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
@@ -37624,6 +37627,104 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2493" spans="1:4">
+      <c r="A2493" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2493" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="C2493" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="D2493" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:4">
+      <c r="A2494" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2494" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="C2494" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="D2494" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:4">
+      <c r="A2495" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2495" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="C2495" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="D2495" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:4">
+      <c r="A2496" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2496" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="C2496" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="D2496" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:4">
+      <c r="A2497" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2497" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="C2497" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="D2497" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:4">
+      <c r="A2498" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2498" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="C2498" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="D2498" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:4">
+      <c r="A2499" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2499" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="C2499" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="D2499" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B7E9E3-6938-48A3-B103-EF9F2177FEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FBD232-C82B-47AC-B317-F76556C5A17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14838" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14964" uniqueCount="1399">
   <si>
     <t>lang_code</t>
   </si>
@@ -5820,12 +5820,30 @@
   <si>
     <t>now()</t>
   </si>
+  <si>
+    <t>authentication-request-positive-purpose</t>
+  </si>
+  <si>
+    <t>authentication-request-negative-purpose</t>
+  </si>
+  <si>
+    <t>Authentication negative purpose</t>
+  </si>
+  <si>
+    <t>Authentication positive purpose</t>
+  </si>
+  <si>
+    <t>authentication-request-positive-summary</t>
+  </si>
+  <si>
+    <t>Authentication positive summary</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5856,13 +5874,13 @@
       <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5880,6 +5898,12 @@
       <sz val="10"/>
       <color rgb="FF067D17"/>
       <name val="&quot;JetBrains Mono&quot;"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6AAB73"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5928,7 +5952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5969,6 +5993,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6278,10 +6305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2473"/>
+  <dimension ref="A1:F2494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2454" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2466" sqref="B2466"/>
+    <sheetView tabSelected="1" topLeftCell="A2478" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2493" sqref="B2493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
@@ -55752,6 +55779,426 @@
         <v>1392</v>
       </c>
     </row>
+    <row r="2474" spans="1:6">
+      <c r="A2474" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2474" s="19" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C2474" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D2474" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2474" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2474" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:6">
+      <c r="A2475" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2475" s="19" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C2475" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D2475" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2475" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2475" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:6">
+      <c r="A2476" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2476" s="19" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C2476" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D2476" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2476" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2476" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:6">
+      <c r="A2477" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2477" s="19" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C2477" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D2477" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2477" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2477" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:6">
+      <c r="A2478" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2478" s="19" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C2478" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D2478" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2478" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2478" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:6">
+      <c r="A2479" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2479" s="19" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C2479" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D2479" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2479" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2479" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:6">
+      <c r="A2480" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2480" s="19" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C2480" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D2480" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2480" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2480" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:6">
+      <c r="A2481" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2481" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C2481" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D2481" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2481" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2481" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:6">
+      <c r="A2482" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2482" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C2482" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D2482" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2482" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2482" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:6">
+      <c r="A2483" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2483" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C2483" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D2483" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2483" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2483" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:6">
+      <c r="A2484" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2484" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C2484" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D2484" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2484" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2484" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:6">
+      <c r="A2485" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2485" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C2485" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D2485" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2485" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2485" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:6">
+      <c r="A2486" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2486" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C2486" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D2486" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2486" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2486" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:6">
+      <c r="A2487" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2487" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C2487" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D2487" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2487" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2487" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:6">
+      <c r="A2488" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2488" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C2488" s="7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D2488" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2488" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2488" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:6">
+      <c r="A2489" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2489" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C2489" s="7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D2489" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2489" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2489" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:6">
+      <c r="A2490" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2490" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C2490" s="7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D2490" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2490" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2490" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:6">
+      <c r="A2491" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2491" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C2491" s="7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D2491" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2491" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2491" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:6">
+      <c r="A2492" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2492" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C2492" s="7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D2492" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2492" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2492" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:6">
+      <c r="A2493" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2493" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C2493" s="7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D2493" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2493" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2493" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:6">
+      <c r="A2494" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2494" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C2494" s="7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D2494" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2494" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2494" t="s">
+        <v>1392</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D365" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nira-qa\tf-nira-dev\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FCA463-3D86-4AC6-9C36-CA205CF91E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33851DF8-79A8-437A-8F13-A15097A77F2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7048" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7052" uniqueCount="688">
   <si>
     <t>lang_code</t>
   </si>
@@ -2086,6 +2086,12 @@
   </si>
   <si>
     <t>Registration Client</t>
+  </si>
+  <si>
+    <t>reg_ack_a6slip_template_part1</t>
+  </si>
+  <si>
+    <t>A6 - reg</t>
   </si>
 </sst>
 </file>
@@ -2491,17 +2497,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1762"/>
+  <dimension ref="A1:D1763"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1758" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1763" sqref="C1763"/>
+    <sheetView tabSelected="1" topLeftCell="A1744" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1763" sqref="E1763"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="37.54296875" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" style="1"/>
+    <col min="4" max="4" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -27169,6 +27175,20 @@
         <v>685</v>
       </c>
       <c r="D1762" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:4">
+      <c r="A1763" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>686</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>687</v>
+      </c>
+      <c r="D1763" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nira-qa\tf-nira-dev\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nira_dev\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33851DF8-79A8-437A-8F13-A15097A77F2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357BF971-88BB-4773-AE69-8C9A38FD449F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7052" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7060" uniqueCount="692">
   <si>
     <t>lang_code</t>
   </si>
@@ -2092,6 +2092,18 @@
   </si>
   <si>
     <t>A6 - reg</t>
+  </si>
+  <si>
+    <t>Renewal-of-Card-Reg-Proc-Notification-Email</t>
+  </si>
+  <si>
+    <t>Renewal of Card Reg Proc Notification Email</t>
+  </si>
+  <si>
+    <t>Renewal-of-Card-Reg-Proc-Notification-Sms</t>
+  </si>
+  <si>
+    <t>Renewal of Card Reg Proc Notification Sms</t>
   </si>
 </sst>
 </file>
@@ -2497,10 +2509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1763"/>
+  <dimension ref="A1:D1765"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1744" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1763" sqref="E1763"/>
+    <sheetView tabSelected="1" topLeftCell="A1748" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1763" sqref="G1763"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
@@ -27192,6 +27204,34 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1764" spans="1:4">
+      <c r="A1764" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>688</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1764" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:4">
+      <c r="A1765" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>690</v>
+      </c>
+      <c r="C1765" t="s">
+        <v>691</v>
+      </c>
+      <c r="D1765" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D1761" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nira_dev\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nira-qa\tf-nira-dev\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357BF971-88BB-4773-AE69-8C9A38FD449F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33851DF8-79A8-437A-8F13-A15097A77F2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7060" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7052" uniqueCount="688">
   <si>
     <t>lang_code</t>
   </si>
@@ -2092,18 +2092,6 @@
   </si>
   <si>
     <t>A6 - reg</t>
-  </si>
-  <si>
-    <t>Renewal-of-Card-Reg-Proc-Notification-Email</t>
-  </si>
-  <si>
-    <t>Renewal of Card Reg Proc Notification Email</t>
-  </si>
-  <si>
-    <t>Renewal-of-Card-Reg-Proc-Notification-Sms</t>
-  </si>
-  <si>
-    <t>Renewal of Card Reg Proc Notification Sms</t>
   </si>
 </sst>
 </file>
@@ -2509,10 +2497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1765"/>
+  <dimension ref="A1:D1763"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1748" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1763" sqref="G1763"/>
+    <sheetView tabSelected="1" topLeftCell="A1744" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1763" sqref="E1763"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
@@ -27204,34 +27192,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1764" spans="1:4">
-      <c r="A1764" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1764" t="s">
-        <v>688</v>
-      </c>
-      <c r="C1764" t="s">
-        <v>689</v>
-      </c>
-      <c r="D1764" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1765" spans="1:4">
-      <c r="A1765" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1765" t="s">
-        <v>690</v>
-      </c>
-      <c r="C1765" t="s">
-        <v>691</v>
-      </c>
-      <c r="D1765" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:D1761" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20415"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nira_dev\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71724D6-3217-4FD6-AB3E-6A3AD2F896B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A7EC85-67CA-483E-B8F9-793618F66BF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2104,16 +2104,16 @@
     <t>A6 - reg</t>
   </si>
   <si>
-    <t>Renewal-of-Card-Reg-Proc-Notification-Email</t>
-  </si>
-  <si>
-    <t>Renewal of Card Reg Proc Notification Email</t>
-  </si>
-  <si>
-    <t>Renewal-of-Card-Reg-Proc-Notification-Sms</t>
-  </si>
-  <si>
-    <t>Renewal of Card Reg Proc Notification Sms</t>
+    <t>Regproc-Renewal-Email</t>
+  </si>
+  <si>
+    <t>Regproc-Renewal-SMS</t>
+  </si>
+  <si>
+    <t>Regproc Renewal Email</t>
+  </si>
+  <si>
+    <t>Regproc Renewal SMS</t>
   </si>
 </sst>
 </file>
@@ -2483,7 +2483,7 @@
   <dimension ref="A1:D1768"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B2" t="s">
         <v>697</v>
@@ -2527,7 +2527,7 @@
         <v>694</v>
       </c>
       <c r="B3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nira_dev\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagarjuna\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A7EC85-67CA-483E-B8F9-793618F66BF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F51EA9B-8DB3-4979-A26D-182F33530743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -2482,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1768"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
